--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U431"/>
+  <dimension ref="A1:V431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,10 +526,15 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>fitness_total</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>points_per_game</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>points_per_mill</t>
         </is>
@@ -602,9 +607,12 @@
         <v>6</v>
       </c>
       <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -677,9 +685,12 @@
         <v>35</v>
       </c>
       <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
         <v>3.428571428571428</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>39.73509933774834</v>
       </c>
     </row>
@@ -752,9 +763,12 @@
         <v>21</v>
       </c>
       <c r="T4" t="n">
+        <v>14</v>
+      </c>
+      <c r="U4" t="n">
         <v>4.476190476190476</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>123.6842105263158</v>
       </c>
     </row>
@@ -827,9 +841,12 @@
         <v>27</v>
       </c>
       <c r="T5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.444444444444445</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>62.85714285714285</v>
       </c>
     </row>
@@ -904,9 +921,12 @@
         <v>19</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>3.684210526315789</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>241.3793103448276</v>
       </c>
     </row>
@@ -979,9 +999,12 @@
         <v>32</v>
       </c>
       <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.8125</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>276.1904761904762</v>
       </c>
     </row>
@@ -1054,9 +1077,12 @@
         <v>34</v>
       </c>
       <c r="T8" t="n">
+        <v>28</v>
+      </c>
+      <c r="U8" t="n">
         <v>4.941176470588236</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>29.5774647887324</v>
       </c>
     </row>
@@ -1129,9 +1155,12 @@
         <v>28</v>
       </c>
       <c r="T9" t="n">
+        <v>31</v>
+      </c>
+      <c r="U9" t="n">
         <v>4.464285714285714</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>34.15300546448087</v>
       </c>
     </row>
@@ -1204,9 +1233,12 @@
         <v>26</v>
       </c>
       <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.5</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>260</v>
       </c>
     </row>
@@ -1277,9 +1309,12 @@
         <v>16</v>
       </c>
       <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.625</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>173.3333333333333</v>
       </c>
     </row>
@@ -1350,9 +1385,12 @@
         <v>13</v>
       </c>
       <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>38.09523809523809</v>
       </c>
     </row>
@@ -1425,9 +1463,12 @@
         <v>23</v>
       </c>
       <c r="T13" t="n">
+        <v>10</v>
+      </c>
+      <c r="U13" t="n">
         <v>3.652173913043478</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>51.21951219512196</v>
       </c>
     </row>
@@ -1498,9 +1539,12 @@
         <v>31</v>
       </c>
       <c r="T14" t="n">
+        <v>34</v>
+      </c>
+      <c r="U14" t="n">
         <v>4.806451612903226</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>46.85534591194968</v>
       </c>
     </row>
@@ -1573,9 +1617,12 @@
         <v>21</v>
       </c>
       <c r="T15" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.476190476190476</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1646,9 +1693,12 @@
         <v>16</v>
       </c>
       <c r="T16" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.375</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>146.6666666666667</v>
       </c>
     </row>
@@ -1721,9 +1771,12 @@
         <v>26</v>
       </c>
       <c r="T17" t="n">
+        <v>8</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.923076923076923</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>115.1515151515151</v>
       </c>
     </row>
@@ -1794,9 +1847,12 @@
         <v>5</v>
       </c>
       <c r="T18" t="n">
+        <v>15</v>
+      </c>
+      <c r="U18" t="n">
         <v>3</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1869,9 +1925,12 @@
         <v>24</v>
       </c>
       <c r="T19" t="n">
+        <v>6</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>141.9354838709677</v>
       </c>
     </row>
@@ -1947,6 +2006,9 @@
         <v>2</v>
       </c>
       <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
         <v>3.174603174603174</v>
       </c>
     </row>
@@ -2017,9 +2079,12 @@
         <v>30</v>
       </c>
       <c r="T21" t="n">
+        <v>8</v>
+      </c>
+      <c r="U21" t="n">
         <v>4.6</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>30.87248322147651</v>
       </c>
     </row>
@@ -2096,9 +2161,12 @@
         <v>33</v>
       </c>
       <c r="T22" t="n">
+        <v>19</v>
+      </c>
+      <c r="U22" t="n">
         <v>5.181818181818182</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>26.67706708268331</v>
       </c>
     </row>
@@ -2171,9 +2239,12 @@
         <v>35</v>
       </c>
       <c r="T23" t="n">
+        <v>12</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.942857142857143</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>128.75</v>
       </c>
     </row>
@@ -2244,9 +2315,12 @@
         <v>35</v>
       </c>
       <c r="T24" t="n">
+        <v>24</v>
+      </c>
+      <c r="U24" t="n">
         <v>4.542857142857143</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>27.65217391304348</v>
       </c>
     </row>
@@ -2319,9 +2393,12 @@
         <v>37</v>
       </c>
       <c r="T25" t="n">
+        <v>22</v>
+      </c>
+      <c r="U25" t="n">
         <v>3.675675675675676</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>37.36263736263736</v>
       </c>
     </row>
@@ -2392,9 +2469,12 @@
         <v>16</v>
       </c>
       <c r="T26" t="n">
+        <v>4</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.8125</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>107.4074074074074</v>
       </c>
     </row>
@@ -2467,9 +2547,12 @@
         <v>28</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>3.607142857142857</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>160.3174603174603</v>
       </c>
     </row>
@@ -2540,9 +2623,12 @@
         <v>30</v>
       </c>
       <c r="T28" t="n">
+        <v>6</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>138.7096774193548</v>
       </c>
     </row>
@@ -2615,9 +2701,12 @@
         <v>38</v>
       </c>
       <c r="T29" t="n">
+        <v>22</v>
+      </c>
+      <c r="U29" t="n">
         <v>4.105263157894737</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>44.44444444444445</v>
       </c>
     </row>
@@ -2690,9 +2779,12 @@
         <v>10</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.2</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>80</v>
       </c>
     </row>
@@ -2763,9 +2855,12 @@
         <v>27</v>
       </c>
       <c r="T31" t="n">
+        <v>12</v>
+      </c>
+      <c r="U31" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>153.8461538461538</v>
       </c>
     </row>
@@ -2838,9 +2933,12 @@
         <v>36</v>
       </c>
       <c r="T32" t="n">
+        <v>22</v>
+      </c>
+      <c r="U32" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>42.30769230769231</v>
       </c>
     </row>
@@ -2913,9 +3011,12 @@
         <v>26</v>
       </c>
       <c r="T33" t="n">
+        <v>14</v>
+      </c>
+      <c r="U33" t="n">
         <v>3.538461538461538</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>56.09756097560976</v>
       </c>
     </row>
@@ -2988,9 +3089,12 @@
         <v>38</v>
       </c>
       <c r="T34" t="n">
+        <v>10</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.868421052631579</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>31.69642857142857</v>
       </c>
     </row>
@@ -3063,9 +3167,12 @@
         <v>35</v>
       </c>
       <c r="T35" t="n">
+        <v>18</v>
+      </c>
+      <c r="U35" t="n">
         <v>5.285714285714286</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>27.98789712556732</v>
       </c>
     </row>
@@ -3136,9 +3243,12 @@
         <v>6</v>
       </c>
       <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>35.18518518518518</v>
       </c>
     </row>
@@ -3211,9 +3321,12 @@
         <v>28</v>
       </c>
       <c r="T37" t="n">
+        <v>-10</v>
+      </c>
+      <c r="U37" t="n">
         <v>2.5</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>333.3333333333334</v>
       </c>
     </row>
@@ -3289,6 +3402,9 @@
         <v>2</v>
       </c>
       <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3359,9 +3475,12 @@
         <v>17</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.529411764705882</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>92.85714285714285</v>
       </c>
     </row>
@@ -3432,9 +3551,12 @@
         <v>3</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>26.66666666666667</v>
       </c>
     </row>
@@ -3505,9 +3627,12 @@
         <v>34</v>
       </c>
       <c r="T41" t="n">
+        <v>18</v>
+      </c>
+      <c r="U41" t="n">
         <v>4.235294117647059</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>35.2078239608802</v>
       </c>
     </row>
@@ -3580,9 +3705,12 @@
         <v>9</v>
       </c>
       <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>80</v>
       </c>
     </row>
@@ -3655,9 +3783,12 @@
         <v>7</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>2.857142857142857</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>80</v>
       </c>
     </row>
@@ -3726,9 +3857,12 @@
         <v>4</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>1.5</v>
       </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3799,9 +3933,12 @@
         <v>26</v>
       </c>
       <c r="T45" t="n">
+        <v>4</v>
+      </c>
+      <c r="U45" t="n">
         <v>2</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>346.6666666666667</v>
       </c>
     </row>
@@ -3874,9 +4011,12 @@
         <v>17</v>
       </c>
       <c r="T46" t="n">
+        <v>13</v>
+      </c>
+      <c r="U46" t="n">
         <v>1.588235294117647</v>
       </c>
-      <c r="U46" t="n">
+      <c r="V46" t="n">
         <v>180</v>
       </c>
     </row>
@@ -3949,9 +4089,12 @@
         <v>36</v>
       </c>
       <c r="T47" t="n">
+        <v>25</v>
+      </c>
+      <c r="U47" t="n">
         <v>3.361111111111111</v>
       </c>
-      <c r="U47" t="n">
+      <c r="V47" t="n">
         <v>29.51219512195122</v>
       </c>
     </row>
@@ -4024,9 +4167,12 @@
         <v>31</v>
       </c>
       <c r="T48" t="n">
+        <v>40</v>
+      </c>
+      <c r="U48" t="n">
         <v>3.67741935483871</v>
       </c>
-      <c r="U48" t="n">
+      <c r="V48" t="n">
         <v>47.10743801652892</v>
       </c>
     </row>
@@ -4099,9 +4245,12 @@
         <v>23</v>
       </c>
       <c r="T49" t="n">
+        <v>22</v>
+      </c>
+      <c r="U49" t="n">
         <v>2.782608695652174</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>38.09523809523809</v>
       </c>
     </row>
@@ -4174,9 +4323,12 @@
         <v>25</v>
       </c>
       <c r="T50" t="n">
+        <v>4</v>
+      </c>
+      <c r="U50" t="n">
         <v>2.88</v>
       </c>
-      <c r="U50" t="n">
+      <c r="V50" t="n">
         <v>110.7692307692308</v>
       </c>
     </row>
@@ -4247,9 +4399,12 @@
         <v>33</v>
       </c>
       <c r="T51" t="n">
+        <v>18</v>
+      </c>
+      <c r="U51" t="n">
         <v>4.636363636363637</v>
       </c>
-      <c r="U51" t="n">
+      <c r="V51" t="n">
         <v>36.86746987951807</v>
       </c>
     </row>
@@ -4320,9 +4475,12 @@
         <v>22</v>
       </c>
       <c r="T52" t="n">
+        <v>4</v>
+      </c>
+      <c r="U52" t="n">
         <v>2.363636363636364</v>
       </c>
-      <c r="U52" t="n">
+      <c r="V52" t="n">
         <v>236.3636363636364</v>
       </c>
     </row>
@@ -4395,9 +4553,12 @@
         <v>38</v>
       </c>
       <c r="T53" t="n">
+        <v>9</v>
+      </c>
+      <c r="U53" t="n">
         <v>1.394736842105263</v>
       </c>
-      <c r="U53" t="n">
+      <c r="V53" t="n">
         <v>69.73684210526315</v>
       </c>
     </row>
@@ -4470,9 +4631,12 @@
         <v>31</v>
       </c>
       <c r="T54" t="n">
+        <v>11</v>
+      </c>
+      <c r="U54" t="n">
         <v>4.419354838709677</v>
       </c>
-      <c r="U54" t="n">
+      <c r="V54" t="n">
         <v>21.04454685099847</v>
       </c>
     </row>
@@ -4543,9 +4707,12 @@
         <v>12</v>
       </c>
       <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="U55" t="n">
+      <c r="V55" t="n">
         <v>87.5</v>
       </c>
     </row>
@@ -4620,9 +4787,12 @@
         <v>33</v>
       </c>
       <c r="T56" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U56" t="n">
         <v>2.424242424242424</v>
       </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
         <v>57.97101449275362</v>
       </c>
     </row>
@@ -4693,9 +4863,12 @@
         <v>19</v>
       </c>
       <c r="T57" t="n">
+        <v>28</v>
+      </c>
+      <c r="U57" t="n">
         <v>4.578947368421052</v>
       </c>
-      <c r="U57" t="n">
+      <c r="V57" t="n">
         <v>23.70572207084469</v>
       </c>
     </row>
@@ -4768,9 +4941,12 @@
         <v>29</v>
       </c>
       <c r="T58" t="n">
+        <v>14</v>
+      </c>
+      <c r="U58" t="n">
         <v>2.344827586206896</v>
       </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>161.9047619047619</v>
       </c>
     </row>
@@ -4841,9 +5017,12 @@
         <v>34</v>
       </c>
       <c r="T59" t="n">
+        <v>14</v>
+      </c>
+      <c r="U59" t="n">
         <v>3.735294117647059</v>
       </c>
-      <c r="U59" t="n">
+      <c r="V59" t="n">
         <v>61.05769230769231</v>
       </c>
     </row>
@@ -4916,9 +5095,12 @@
         <v>23</v>
       </c>
       <c r="T60" t="n">
+        <v>22</v>
+      </c>
+      <c r="U60" t="n">
         <v>3.739130434782609</v>
       </c>
-      <c r="U60" t="n">
+      <c r="V60" t="n">
         <v>43.43434343434343</v>
       </c>
     </row>
@@ -4991,9 +5173,12 @@
         <v>6</v>
       </c>
       <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>53.33333333333334</v>
       </c>
     </row>
@@ -5064,9 +5249,12 @@
         <v>24</v>
       </c>
       <c r="T62" t="n">
+        <v>8</v>
+      </c>
+      <c r="U62" t="n">
         <v>6.041666666666667</v>
       </c>
-      <c r="U62" t="n">
+      <c r="V62" t="n">
         <v>10.39426523297491</v>
       </c>
     </row>
@@ -5137,9 +5325,12 @@
         <v>20</v>
       </c>
       <c r="T63" t="n">
+        <v>6</v>
+      </c>
+      <c r="U63" t="n">
         <v>2.05</v>
       </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
         <v>205</v>
       </c>
     </row>
@@ -5210,9 +5401,12 @@
         <v>31</v>
       </c>
       <c r="T64" t="n">
+        <v>32</v>
+      </c>
+      <c r="U64" t="n">
         <v>3.67741935483871</v>
       </c>
-      <c r="U64" t="n">
+      <c r="V64" t="n">
         <v>51.81818181818181</v>
       </c>
     </row>
@@ -5285,9 +5479,12 @@
         <v>25</v>
       </c>
       <c r="T65" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U65" t="n">
         <v>3.6</v>
       </c>
-      <c r="U65" t="n">
+      <c r="V65" t="n">
         <v>92.78350515463917</v>
       </c>
     </row>
@@ -5360,9 +5557,12 @@
         <v>5</v>
       </c>
       <c r="T66" t="n">
+        <v>8</v>
+      </c>
+      <c r="U66" t="n">
         <v>1.6</v>
       </c>
-      <c r="U66" t="n">
+      <c r="V66" t="n">
         <v>22.22222222222222</v>
       </c>
     </row>
@@ -5433,9 +5633,12 @@
         <v>11</v>
       </c>
       <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
         <v>2.909090909090909</v>
       </c>
-      <c r="U67" t="n">
+      <c r="V67" t="n">
         <v>114.2857142857143</v>
       </c>
     </row>
@@ -5508,9 +5711,12 @@
         <v>35</v>
       </c>
       <c r="T68" t="n">
+        <v>35</v>
+      </c>
+      <c r="U68" t="n">
         <v>4.828571428571428</v>
       </c>
-      <c r="U68" t="n">
+      <c r="V68" t="n">
         <v>20.41062801932367</v>
       </c>
     </row>
@@ -5583,9 +5789,12 @@
         <v>35</v>
       </c>
       <c r="T69" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U69" t="n">
         <v>2.514285714285714</v>
       </c>
-      <c r="U69" t="n">
+      <c r="V69" t="n">
         <v>53.98773006134969</v>
       </c>
     </row>
@@ -5658,9 +5867,12 @@
         <v>34</v>
       </c>
       <c r="T70" t="n">
+        <v>18</v>
+      </c>
+      <c r="U70" t="n">
         <v>4.470588235294118</v>
       </c>
-      <c r="U70" t="n">
+      <c r="V70" t="n">
         <v>26.16179001721171</v>
       </c>
     </row>
@@ -5737,9 +5949,12 @@
         <v>25</v>
       </c>
       <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
         <v>2.72</v>
       </c>
-      <c r="U71" t="n">
+      <c r="V71" t="n">
         <v>295.6521739130434</v>
       </c>
     </row>
@@ -5814,9 +6029,12 @@
         <v>18</v>
       </c>
       <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
         <v>3.611111111111111</v>
       </c>
-      <c r="U72" t="n">
+      <c r="V72" t="n">
         <v>270.8333333333334</v>
       </c>
     </row>
@@ -5889,9 +6107,12 @@
         <v>17</v>
       </c>
       <c r="T73" t="n">
+        <v>6</v>
+      </c>
+      <c r="U73" t="n">
         <v>2.705882352941177</v>
       </c>
-      <c r="U73" t="n">
+      <c r="V73" t="n">
         <v>14.64968152866242</v>
       </c>
     </row>
@@ -5964,9 +6185,12 @@
         <v>21</v>
       </c>
       <c r="T74" t="n">
+        <v>4</v>
+      </c>
+      <c r="U74" t="n">
         <v>1.619047619047619</v>
       </c>
-      <c r="U74" t="n">
+      <c r="V74" t="n">
         <v>188.8888888888889</v>
       </c>
     </row>
@@ -6037,9 +6261,12 @@
         <v>15</v>
       </c>
       <c r="T75" t="n">
+        <v>12</v>
+      </c>
+      <c r="U75" t="n">
         <v>3.8</v>
       </c>
-      <c r="U75" t="n">
+      <c r="V75" t="n">
         <v>228</v>
       </c>
     </row>
@@ -6112,9 +6339,12 @@
         <v>31</v>
       </c>
       <c r="T76" t="n">
+        <v>26</v>
+      </c>
+      <c r="U76" t="n">
         <v>4.516129032258065</v>
       </c>
-      <c r="U76" t="n">
+      <c r="V76" t="n">
         <v>14.12714429868819</v>
       </c>
     </row>
@@ -6185,9 +6415,12 @@
         <v>7</v>
       </c>
       <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="U77" t="n">
+      <c r="V77" t="n">
         <v>40</v>
       </c>
     </row>
@@ -6258,9 +6491,12 @@
         <v>35</v>
       </c>
       <c r="T78" t="n">
+        <v>33</v>
+      </c>
+      <c r="U78" t="n">
         <v>4.542857142857143</v>
       </c>
-      <c r="U78" t="n">
+      <c r="V78" t="n">
         <v>45.04249291784703</v>
       </c>
     </row>
@@ -6333,9 +6569,12 @@
         <v>38</v>
       </c>
       <c r="T79" t="n">
+        <v>10</v>
+      </c>
+      <c r="U79" t="n">
         <v>2.052631578947369</v>
       </c>
-      <c r="U79" t="n">
+      <c r="V79" t="n">
         <v>20.96774193548387</v>
       </c>
     </row>
@@ -6404,9 +6643,12 @@
         <v>1</v>
       </c>
       <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
         <v>2</v>
       </c>
-      <c r="U80" t="n">
+      <c r="V80" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -6475,9 +6717,12 @@
         <v>26</v>
       </c>
       <c r="T81" t="n">
+        <v>4</v>
+      </c>
+      <c r="U81" t="n">
         <v>1.230769230769231</v>
       </c>
-      <c r="U81" t="n">
+      <c r="V81" t="n">
         <v>68.08510638297872</v>
       </c>
     </row>
@@ -6550,9 +6795,12 @@
         <v>3</v>
       </c>
       <c r="T82" t="n">
+        <v>6</v>
+      </c>
+      <c r="U82" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="U82" t="n">
+      <c r="V82" t="n">
         <v>53.33333333333334</v>
       </c>
     </row>
@@ -6623,9 +6871,12 @@
         <v>24</v>
       </c>
       <c r="T83" t="n">
+        <v>6</v>
+      </c>
+      <c r="U83" t="n">
         <v>1.708333333333333</v>
       </c>
-      <c r="U83" t="n">
+      <c r="V83" t="n">
         <v>186.3636363636364</v>
       </c>
     </row>
@@ -6698,9 +6949,12 @@
         <v>27</v>
       </c>
       <c r="T84" t="n">
+        <v>8</v>
+      </c>
+      <c r="U84" t="n">
         <v>3</v>
       </c>
-      <c r="U84" t="n">
+      <c r="V84" t="n">
         <v>38.38862559241706</v>
       </c>
     </row>
@@ -6771,9 +7025,12 @@
         <v>25</v>
       </c>
       <c r="T85" t="n">
+        <v>2</v>
+      </c>
+      <c r="U85" t="n">
         <v>3.16</v>
       </c>
-      <c r="U85" t="n">
+      <c r="V85" t="n">
         <v>45.14285714285715</v>
       </c>
     </row>
@@ -6844,9 +7101,12 @@
         <v>17</v>
       </c>
       <c r="T86" t="n">
+        <v>6</v>
+      </c>
+      <c r="U86" t="n">
         <v>2.352941176470588</v>
       </c>
-      <c r="U86" t="n">
+      <c r="V86" t="n">
         <v>200</v>
       </c>
     </row>
@@ -6917,9 +7177,12 @@
         <v>28</v>
       </c>
       <c r="T87" t="n">
+        <v>10</v>
+      </c>
+      <c r="U87" t="n">
         <v>1.892857142857143</v>
       </c>
-      <c r="U87" t="n">
+      <c r="V87" t="n">
         <v>203.8461538461538</v>
       </c>
     </row>
@@ -6990,9 +7253,12 @@
         <v>23</v>
       </c>
       <c r="T88" t="n">
+        <v>18</v>
+      </c>
+      <c r="U88" t="n">
         <v>5.260869565217392</v>
       </c>
-      <c r="U88" t="n">
+      <c r="V88" t="n">
         <v>17.26105563480742</v>
       </c>
     </row>
@@ -7063,9 +7329,12 @@
         <v>21</v>
       </c>
       <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
         <v>2.809523809523809</v>
       </c>
-      <c r="U89" t="n">
+      <c r="V89" t="n">
         <v>310.5263157894737</v>
       </c>
     </row>
@@ -7142,9 +7411,12 @@
         <v>14</v>
       </c>
       <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
         <v>2.928571428571428</v>
       </c>
-      <c r="U90" t="n">
+      <c r="V90" t="n">
         <v>195.2380952380952</v>
       </c>
     </row>
@@ -7217,9 +7489,12 @@
         <v>12</v>
       </c>
       <c r="T91" t="n">
+        <v>22</v>
+      </c>
+      <c r="U91" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="U91" t="n">
+      <c r="V91" t="n">
         <v>58.33333333333334</v>
       </c>
     </row>
@@ -7290,9 +7565,12 @@
         <v>28</v>
       </c>
       <c r="T92" t="n">
+        <v>19</v>
+      </c>
+      <c r="U92" t="n">
         <v>2.678571428571428</v>
       </c>
-      <c r="U92" t="n">
+      <c r="V92" t="n">
         <v>54.34782608695652</v>
       </c>
     </row>
@@ -7369,9 +7647,12 @@
         <v>16</v>
       </c>
       <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
         <v>2.625</v>
       </c>
-      <c r="U93" t="n">
+      <c r="V93" t="n">
         <v>144.8275862068966</v>
       </c>
     </row>
@@ -7444,9 +7725,12 @@
         <v>35</v>
       </c>
       <c r="T94" t="n">
+        <v>31</v>
+      </c>
+      <c r="U94" t="n">
         <v>3.4</v>
       </c>
-      <c r="U94" t="n">
+      <c r="V94" t="n">
         <v>45.24714828897338</v>
       </c>
     </row>
@@ -7519,9 +7803,12 @@
         <v>3</v>
       </c>
       <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
         <v>2</v>
       </c>
-      <c r="U95" t="n">
+      <c r="V95" t="n">
         <v>40</v>
       </c>
     </row>
@@ -7592,9 +7879,12 @@
         <v>8</v>
       </c>
       <c r="T96" t="n">
+        <v>4</v>
+      </c>
+      <c r="U96" t="n">
         <v>3</v>
       </c>
-      <c r="U96" t="n">
+      <c r="V96" t="n">
         <v>160</v>
       </c>
     </row>
@@ -7667,9 +7957,12 @@
         <v>28</v>
       </c>
       <c r="T97" t="n">
+        <v>12</v>
+      </c>
+      <c r="U97" t="n">
         <v>2.535714285714286</v>
       </c>
-      <c r="U97" t="n">
+      <c r="V97" t="n">
         <v>85.5421686746988</v>
       </c>
     </row>
@@ -7742,9 +8035,12 @@
         <v>30</v>
       </c>
       <c r="T98" t="n">
+        <v>6</v>
+      </c>
+      <c r="U98" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="U98" t="n">
+      <c r="V98" t="n">
         <v>17.23356009070295</v>
       </c>
     </row>
@@ -7821,9 +8117,12 @@
         <v>25</v>
       </c>
       <c r="T99" t="n">
+        <v>4</v>
+      </c>
+      <c r="U99" t="n">
         <v>2.64</v>
       </c>
-      <c r="U99" t="n">
+      <c r="V99" t="n">
         <v>90.41095890410959</v>
       </c>
     </row>
@@ -7896,9 +8195,12 @@
         <v>35</v>
       </c>
       <c r="T100" t="n">
+        <v>10</v>
+      </c>
+      <c r="U100" t="n">
         <v>3.542857142857143</v>
       </c>
-      <c r="U100" t="n">
+      <c r="V100" t="n">
         <v>54.14847161572052</v>
       </c>
     </row>
@@ -7971,9 +8273,12 @@
         <v>29</v>
       </c>
       <c r="T101" t="n">
+        <v>12</v>
+      </c>
+      <c r="U101" t="n">
         <v>3.482758620689655</v>
       </c>
-      <c r="U101" t="n">
+      <c r="V101" t="n">
         <v>47.41784037558686</v>
       </c>
     </row>
@@ -8046,9 +8351,12 @@
         <v>23</v>
       </c>
       <c r="T102" t="n">
+        <v>4</v>
+      </c>
+      <c r="U102" t="n">
         <v>3.08695652173913</v>
       </c>
-      <c r="U102" t="n">
+      <c r="V102" t="n">
         <v>18.63517060367454</v>
       </c>
     </row>
@@ -8121,9 +8429,12 @@
         <v>32</v>
       </c>
       <c r="T103" t="n">
+        <v>12</v>
+      </c>
+      <c r="U103" t="n">
         <v>4.4375</v>
       </c>
-      <c r="U103" t="n">
+      <c r="V103" t="n">
         <v>31.27753303964758</v>
       </c>
     </row>
@@ -8194,9 +8505,12 @@
         <v>4</v>
       </c>
       <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
         <v>4</v>
       </c>
-      <c r="U104" t="n">
+      <c r="V104" t="n">
         <v>69.56521739130434</v>
       </c>
     </row>
@@ -8269,9 +8583,12 @@
         <v>20</v>
       </c>
       <c r="T105" t="n">
+        <v>17</v>
+      </c>
+      <c r="U105" t="n">
         <v>5.45</v>
       </c>
-      <c r="U105" t="n">
+      <c r="V105" t="n">
         <v>56.18556701030928</v>
       </c>
     </row>
@@ -8344,9 +8661,12 @@
         <v>28</v>
       </c>
       <c r="T106" t="n">
+        <v>12</v>
+      </c>
+      <c r="U106" t="n">
         <v>5.857142857142857</v>
       </c>
-      <c r="U106" t="n">
+      <c r="V106" t="n">
         <v>24.40476190476191</v>
       </c>
     </row>
@@ -8419,9 +8739,12 @@
         <v>38</v>
       </c>
       <c r="T107" t="n">
+        <v>22</v>
+      </c>
+      <c r="U107" t="n">
         <v>4.315789473684211</v>
       </c>
-      <c r="U107" t="n">
+      <c r="V107" t="n">
         <v>49.39759036144579</v>
       </c>
     </row>
@@ -8492,9 +8815,12 @@
         <v>25</v>
       </c>
       <c r="T108" t="n">
+        <v>8</v>
+      </c>
+      <c r="U108" t="n">
         <v>3.04</v>
       </c>
-      <c r="U108" t="n">
+      <c r="V108" t="n">
         <v>400</v>
       </c>
     </row>
@@ -8567,9 +8893,12 @@
         <v>37</v>
       </c>
       <c r="T109" t="n">
+        <v>18</v>
+      </c>
+      <c r="U109" t="n">
         <v>3.108108108108108</v>
       </c>
-      <c r="U109" t="n">
+      <c r="V109" t="n">
         <v>43.72623574144487</v>
       </c>
     </row>
@@ -8642,9 +8971,12 @@
         <v>25</v>
       </c>
       <c r="T110" t="n">
+        <v>10</v>
+      </c>
+      <c r="U110" t="n">
         <v>3.72</v>
       </c>
-      <c r="U110" t="n">
+      <c r="V110" t="n">
         <v>11.69811320754717</v>
       </c>
     </row>
@@ -8717,9 +9049,12 @@
         <v>18</v>
       </c>
       <c r="T111" t="n">
+        <v>10</v>
+      </c>
+      <c r="U111" t="n">
         <v>1.222222222222222</v>
       </c>
-      <c r="U111" t="n">
+      <c r="V111" t="n">
         <v>20.37037037037037</v>
       </c>
     </row>
@@ -8790,9 +9125,12 @@
         <v>10</v>
       </c>
       <c r="T112" t="n">
+        <v>39</v>
+      </c>
+      <c r="U112" t="n">
         <v>4.9</v>
       </c>
-      <c r="U112" t="n">
+      <c r="V112" t="n">
         <v>19.6</v>
       </c>
     </row>
@@ -8863,9 +9201,12 @@
         <v>1</v>
       </c>
       <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
         <v>6</v>
       </c>
-      <c r="U113" t="n">
+      <c r="V113" t="n">
         <v>40</v>
       </c>
     </row>
@@ -8939,6 +9280,9 @@
         <v>2</v>
       </c>
       <c r="U114" t="n">
+        <v>2</v>
+      </c>
+      <c r="V114" t="n">
         <v>146.6666666666667</v>
       </c>
     </row>
@@ -9011,9 +9355,12 @@
         <v>20</v>
       </c>
       <c r="T115" t="n">
+        <v>8</v>
+      </c>
+      <c r="U115" t="n">
         <v>3.4</v>
       </c>
-      <c r="U115" t="n">
+      <c r="V115" t="n">
         <v>94.44444444444444</v>
       </c>
     </row>
@@ -9086,9 +9433,12 @@
         <v>33</v>
       </c>
       <c r="T116" t="n">
+        <v>24</v>
+      </c>
+      <c r="U116" t="n">
         <v>3.03030303030303</v>
       </c>
-      <c r="U116" t="n">
+      <c r="V116" t="n">
         <v>59.52380952380953</v>
       </c>
     </row>
@@ -9161,9 +9511,12 @@
         <v>15</v>
       </c>
       <c r="T117" t="n">
+        <v>16</v>
+      </c>
+      <c r="U117" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="U117" t="n">
+      <c r="V117" t="n">
         <v>42.52873563218391</v>
       </c>
     </row>
@@ -9236,9 +9589,12 @@
         <v>31</v>
       </c>
       <c r="T118" t="n">
+        <v>2</v>
+      </c>
+      <c r="U118" t="n">
         <v>2.935483870967742</v>
       </c>
-      <c r="U118" t="n">
+      <c r="V118" t="n">
         <v>93.81443298969073</v>
       </c>
     </row>
@@ -9314,6 +9670,9 @@
         <v>2</v>
       </c>
       <c r="U119" t="n">
+        <v>2</v>
+      </c>
+      <c r="V119" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -9384,9 +9743,12 @@
         <v>20</v>
       </c>
       <c r="T120" t="n">
+        <v>6</v>
+      </c>
+      <c r="U120" t="n">
         <v>1.8</v>
       </c>
-      <c r="U120" t="n">
+      <c r="V120" t="n">
         <v>189.4736842105263</v>
       </c>
     </row>
@@ -9459,9 +9821,12 @@
         <v>37</v>
       </c>
       <c r="T121" t="n">
+        <v>18</v>
+      </c>
+      <c r="U121" t="n">
         <v>4.54054054054054</v>
       </c>
-      <c r="U121" t="n">
+      <c r="V121" t="n">
         <v>16.93548387096774</v>
       </c>
     </row>
@@ -9532,9 +9897,12 @@
         <v>6</v>
       </c>
       <c r="T122" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U122" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="U122" t="n">
+      <c r="V122" t="n">
         <v>33.33333333333334</v>
       </c>
     </row>
@@ -9607,9 +9975,12 @@
         <v>33</v>
       </c>
       <c r="T123" t="n">
+        <v>16</v>
+      </c>
+      <c r="U123" t="n">
         <v>5.606060606060606</v>
       </c>
-      <c r="U123" t="n">
+      <c r="V123" t="n">
         <v>18.26258637709773</v>
       </c>
     </row>
@@ -9682,9 +10053,12 @@
         <v>25</v>
       </c>
       <c r="T124" t="n">
+        <v>14</v>
+      </c>
+      <c r="U124" t="n">
         <v>2.48</v>
       </c>
-      <c r="U124" t="n">
+      <c r="V124" t="n">
         <v>238.4615384615385</v>
       </c>
     </row>
@@ -9755,9 +10129,12 @@
         <v>25</v>
       </c>
       <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
         <v>2.32</v>
       </c>
-      <c r="U125" t="n">
+      <c r="V125" t="n">
         <v>232</v>
       </c>
     </row>
@@ -9828,9 +10205,12 @@
         <v>21</v>
       </c>
       <c r="T126" t="n">
+        <v>11</v>
+      </c>
+      <c r="U126" t="n">
         <v>4.619047619047619</v>
       </c>
-      <c r="U126" t="n">
+      <c r="V126" t="n">
         <v>125.974025974026</v>
       </c>
     </row>
@@ -9903,9 +10283,12 @@
         <v>30</v>
       </c>
       <c r="T127" t="n">
+        <v>27</v>
+      </c>
+      <c r="U127" t="n">
         <v>3.6</v>
       </c>
-      <c r="U127" t="n">
+      <c r="V127" t="n">
         <v>50.70422535211268</v>
       </c>
     </row>
@@ -9978,9 +10361,12 @@
         <v>31</v>
       </c>
       <c r="T128" t="n">
+        <v>4</v>
+      </c>
+      <c r="U128" t="n">
         <v>3.032258064516129</v>
       </c>
-      <c r="U128" t="n">
+      <c r="V128" t="n">
         <v>15.74539363484087</v>
       </c>
     </row>
@@ -10057,9 +10443,12 @@
         <v>35</v>
       </c>
       <c r="T129" t="n">
+        <v>4</v>
+      </c>
+      <c r="U129" t="n">
         <v>5.142857142857143</v>
       </c>
-      <c r="U129" t="n">
+      <c r="V129" t="n">
         <v>30.87478559176672</v>
       </c>
     </row>
@@ -10132,9 +10521,12 @@
         <v>23</v>
       </c>
       <c r="T130" t="n">
+        <v>6</v>
+      </c>
+      <c r="U130" t="n">
         <v>3.521739130434783</v>
       </c>
-      <c r="U130" t="n">
+      <c r="V130" t="n">
         <v>165.3061224489796</v>
       </c>
     </row>
@@ -10207,9 +10599,12 @@
         <v>24</v>
       </c>
       <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
         <v>2.375</v>
       </c>
-      <c r="U131" t="n">
+      <c r="V131" t="n">
         <v>81.42857142857143</v>
       </c>
     </row>
@@ -10282,9 +10677,12 @@
         <v>32</v>
       </c>
       <c r="T132" t="n">
+        <v>30</v>
+      </c>
+      <c r="U132" t="n">
         <v>4.21875</v>
       </c>
-      <c r="U132" t="n">
+      <c r="V132" t="n">
         <v>46.55172413793104</v>
       </c>
     </row>
@@ -10355,9 +10753,12 @@
         <v>38</v>
       </c>
       <c r="T133" t="n">
+        <v>4</v>
+      </c>
+      <c r="U133" t="n">
         <v>1.342105263157895</v>
       </c>
-      <c r="U133" t="n">
+      <c r="V133" t="n">
         <v>47.22222222222222</v>
       </c>
     </row>
@@ -10430,9 +10831,12 @@
         <v>28</v>
       </c>
       <c r="T134" t="n">
+        <v>8</v>
+      </c>
+      <c r="U134" t="n">
         <v>3.714285714285714</v>
       </c>
-      <c r="U134" t="n">
+      <c r="V134" t="n">
         <v>40.31007751937985</v>
       </c>
     </row>
@@ -10505,9 +10909,12 @@
         <v>29</v>
       </c>
       <c r="T135" t="n">
+        <v>11</v>
+      </c>
+      <c r="U135" t="n">
         <v>4</v>
       </c>
-      <c r="U135" t="n">
+      <c r="V135" t="n">
         <v>30.52631578947368</v>
       </c>
     </row>
@@ -10580,9 +10987,12 @@
         <v>33</v>
       </c>
       <c r="T136" t="n">
+        <v>14</v>
+      </c>
+      <c r="U136" t="n">
         <v>2.727272727272727</v>
       </c>
-      <c r="U136" t="n">
+      <c r="V136" t="n">
         <v>346.1538461538461</v>
       </c>
     </row>
@@ -10653,9 +11063,12 @@
         <v>15</v>
       </c>
       <c r="T137" t="n">
+        <v>2</v>
+      </c>
+      <c r="U137" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="U137" t="n">
+      <c r="V137" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -10728,9 +11141,12 @@
         <v>25</v>
       </c>
       <c r="T138" t="n">
+        <v>8</v>
+      </c>
+      <c r="U138" t="n">
         <v>3.84</v>
       </c>
-      <c r="U138" t="n">
+      <c r="V138" t="n">
         <v>117.0731707317073</v>
       </c>
     </row>
@@ -10803,9 +11219,12 @@
         <v>34</v>
       </c>
       <c r="T139" t="n">
+        <v>6</v>
+      </c>
+      <c r="U139" t="n">
         <v>4.411764705882353</v>
       </c>
-      <c r="U139" t="n">
+      <c r="V139" t="n">
         <v>15.67398119122257</v>
       </c>
     </row>
@@ -10878,9 +11297,12 @@
         <v>18</v>
       </c>
       <c r="T140" t="n">
+        <v>2</v>
+      </c>
+      <c r="U140" t="n">
         <v>1.777777777777778</v>
       </c>
-      <c r="U140" t="n">
+      <c r="V140" t="n">
         <v>28.82882882882883</v>
       </c>
     </row>
@@ -10953,9 +11375,12 @@
         <v>22</v>
       </c>
       <c r="T141" t="n">
+        <v>4</v>
+      </c>
+      <c r="U141" t="n">
         <v>2.909090909090909</v>
       </c>
-      <c r="U141" t="n">
+      <c r="V141" t="n">
         <v>43.83561643835616</v>
       </c>
     </row>
@@ -11026,9 +11451,12 @@
         <v>37</v>
       </c>
       <c r="T142" t="n">
+        <v>10</v>
+      </c>
+      <c r="U142" t="n">
         <v>4.594594594594595</v>
       </c>
-      <c r="U142" t="n">
+      <c r="V142" t="n">
         <v>70.24793388429752</v>
       </c>
     </row>
@@ -11101,9 +11529,12 @@
         <v>33</v>
       </c>
       <c r="T143" t="n">
+        <v>6</v>
+      </c>
+      <c r="U143" t="n">
         <v>2.424242424242424</v>
       </c>
-      <c r="U143" t="n">
+      <c r="V143" t="n">
         <v>44.6927374301676</v>
       </c>
     </row>
@@ -11176,9 +11607,12 @@
         <v>35</v>
       </c>
       <c r="T144" t="n">
+        <v>20</v>
+      </c>
+      <c r="U144" t="n">
         <v>3.342857142857143</v>
       </c>
-      <c r="U144" t="n">
+      <c r="V144" t="n">
         <v>15.17509727626459</v>
       </c>
     </row>
@@ -11251,9 +11685,12 @@
         <v>30</v>
       </c>
       <c r="T145" t="n">
+        <v>14</v>
+      </c>
+      <c r="U145" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="U145" t="n">
+      <c r="V145" t="n">
         <v>200</v>
       </c>
     </row>
@@ -11326,9 +11763,12 @@
         <v>36</v>
       </c>
       <c r="T146" t="n">
+        <v>10</v>
+      </c>
+      <c r="U146" t="n">
         <v>2.555555555555555</v>
       </c>
-      <c r="U146" t="n">
+      <c r="V146" t="n">
         <v>82.88288288288288</v>
       </c>
     </row>
@@ -11401,9 +11841,12 @@
         <v>38</v>
       </c>
       <c r="T147" t="n">
+        <v>18</v>
+      </c>
+      <c r="U147" t="n">
         <v>4.894736842105263</v>
       </c>
-      <c r="U147" t="n">
+      <c r="V147" t="n">
         <v>30.14586709886548</v>
       </c>
     </row>
@@ -11472,9 +11915,12 @@
         <v>7</v>
       </c>
       <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
         <v>2.285714285714286</v>
       </c>
-      <c r="U148" t="n">
+      <c r="V148" t="n">
         <v>106.6666666666667</v>
       </c>
     </row>
@@ -11545,9 +11991,12 @@
         <v>27</v>
       </c>
       <c r="T149" t="n">
+        <v>6</v>
+      </c>
+      <c r="U149" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="U149" t="n">
+      <c r="V149" t="n">
         <v>272.7272727272727</v>
       </c>
     </row>
@@ -11620,9 +12069,12 @@
         <v>36</v>
       </c>
       <c r="T150" t="n">
+        <v>8</v>
+      </c>
+      <c r="U150" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U150" t="n">
+      <c r="V150" t="n">
         <v>68.96551724137932</v>
       </c>
     </row>
@@ -11695,9 +12147,12 @@
         <v>33</v>
       </c>
       <c r="T151" t="n">
+        <v>22</v>
+      </c>
+      <c r="U151" t="n">
         <v>5.515151515151516</v>
       </c>
-      <c r="U151" t="n">
+      <c r="V151" t="n">
         <v>15.64918314703353</v>
       </c>
     </row>
@@ -11770,9 +12225,12 @@
         <v>15</v>
       </c>
       <c r="T152" t="n">
+        <v>2</v>
+      </c>
+      <c r="U152" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="U152" t="n">
+      <c r="V152" t="n">
         <v>333.3333333333334</v>
       </c>
     </row>
@@ -11845,9 +12303,12 @@
         <v>22</v>
       </c>
       <c r="T153" t="n">
+        <v>30</v>
+      </c>
+      <c r="U153" t="n">
         <v>4.727272727272728</v>
       </c>
-      <c r="U153" t="n">
+      <c r="V153" t="n">
         <v>17.27574750830565</v>
       </c>
     </row>
@@ -11920,9 +12381,12 @@
         <v>38</v>
       </c>
       <c r="T154" t="n">
+        <v>22</v>
+      </c>
+      <c r="U154" t="n">
         <v>4.315789473684211</v>
       </c>
-      <c r="U154" t="n">
+      <c r="V154" t="n">
         <v>58.36298932384341</v>
       </c>
     </row>
@@ -11995,9 +12459,12 @@
         <v>34</v>
       </c>
       <c r="T155" t="n">
+        <v>34</v>
+      </c>
+      <c r="U155" t="n">
         <v>4.470588235294118</v>
       </c>
-      <c r="U155" t="n">
+      <c r="V155" t="n">
         <v>24.08874801901743</v>
       </c>
     </row>
@@ -12070,9 +12537,12 @@
         <v>21</v>
       </c>
       <c r="T156" t="n">
+        <v>9</v>
+      </c>
+      <c r="U156" t="n">
         <v>2.857142857142857</v>
       </c>
-      <c r="U156" t="n">
+      <c r="V156" t="n">
         <v>56.07476635514018</v>
       </c>
     </row>
@@ -12145,9 +12615,12 @@
         <v>36</v>
       </c>
       <c r="T157" t="n">
+        <v>30</v>
+      </c>
+      <c r="U157" t="n">
         <v>5.222222222222222</v>
       </c>
-      <c r="U157" t="n">
+      <c r="V157" t="n">
         <v>19.38144329896907</v>
       </c>
     </row>
@@ -12218,9 +12691,12 @@
         <v>22</v>
       </c>
       <c r="T158" t="n">
+        <v>10</v>
+      </c>
+      <c r="U158" t="n">
         <v>2.181818181818182</v>
       </c>
-      <c r="U158" t="n">
+      <c r="V158" t="n">
         <v>228.5714285714286</v>
       </c>
     </row>
@@ -12293,9 +12769,12 @@
         <v>36</v>
       </c>
       <c r="T159" t="n">
+        <v>16</v>
+      </c>
+      <c r="U159" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="U159" t="n">
+      <c r="V159" t="n">
         <v>22.06896551724138</v>
       </c>
     </row>
@@ -12368,9 +12847,12 @@
         <v>31</v>
       </c>
       <c r="T160" t="n">
+        <v>22</v>
+      </c>
+      <c r="U160" t="n">
         <v>4.870967741935484</v>
       </c>
-      <c r="U160" t="n">
+      <c r="V160" t="n">
         <v>22.84417549167927</v>
       </c>
     </row>
@@ -12443,9 +12925,12 @@
         <v>21</v>
       </c>
       <c r="T161" t="n">
+        <v>23</v>
+      </c>
+      <c r="U161" t="n">
         <v>5.380952380952381</v>
       </c>
-      <c r="U161" t="n">
+      <c r="V161" t="n">
         <v>11.74636174636175</v>
       </c>
     </row>
@@ -12516,9 +13001,12 @@
         <v>25</v>
       </c>
       <c r="T162" t="n">
+        <v>6</v>
+      </c>
+      <c r="U162" t="n">
         <v>2.08</v>
       </c>
-      <c r="U162" t="n">
+      <c r="V162" t="n">
         <v>260</v>
       </c>
     </row>
@@ -12591,9 +13079,12 @@
         <v>14</v>
       </c>
       <c r="T163" t="n">
+        <v>30</v>
+      </c>
+      <c r="U163" t="n">
         <v>5.714285714285714</v>
       </c>
-      <c r="U163" t="n">
+      <c r="V163" t="n">
         <v>29.73977695167286</v>
       </c>
     </row>
@@ -12666,9 +13157,12 @@
         <v>27</v>
       </c>
       <c r="T164" t="n">
+        <v>16</v>
+      </c>
+      <c r="U164" t="n">
         <v>4.185185185185185</v>
       </c>
-      <c r="U164" t="n">
+      <c r="V164" t="n">
         <v>64.20454545454545</v>
       </c>
     </row>
@@ -12741,9 +13235,12 @@
         <v>28</v>
       </c>
       <c r="T165" t="n">
+        <v>16</v>
+      </c>
+      <c r="U165" t="n">
         <v>1.571428571428571</v>
       </c>
-      <c r="U165" t="n">
+      <c r="V165" t="n">
         <v>44.44444444444444</v>
       </c>
     </row>
@@ -12816,9 +13313,12 @@
         <v>16</v>
       </c>
       <c r="T166" t="n">
+        <v>4</v>
+      </c>
+      <c r="U166" t="n">
         <v>1.5</v>
       </c>
-      <c r="U166" t="n">
+      <c r="V166" t="n">
         <v>160</v>
       </c>
     </row>
@@ -12891,9 +13391,12 @@
         <v>38</v>
       </c>
       <c r="T167" t="n">
+        <v>44</v>
+      </c>
+      <c r="U167" t="n">
         <v>7.5</v>
       </c>
-      <c r="U167" t="n">
+      <c r="V167" t="n">
         <v>12.39130434782609</v>
       </c>
     </row>
@@ -12966,9 +13469,12 @@
         <v>26</v>
       </c>
       <c r="T168" t="n">
+        <v>4</v>
+      </c>
+      <c r="U168" t="n">
         <v>2.307692307692307</v>
       </c>
-      <c r="U168" t="n">
+      <c r="V168" t="n">
         <v>193.5483870967742</v>
       </c>
     </row>
@@ -13039,9 +13545,12 @@
         <v>30</v>
       </c>
       <c r="T169" t="n">
+        <v>4</v>
+      </c>
+      <c r="U169" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="U169" t="n">
+      <c r="V169" t="n">
         <v>69.11764705882352</v>
       </c>
     </row>
@@ -13112,9 +13621,12 @@
         <v>18</v>
       </c>
       <c r="T170" t="n">
+        <v>17</v>
+      </c>
+      <c r="U170" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="U170" t="n">
+      <c r="V170" t="n">
         <v>72.15189873417721</v>
       </c>
     </row>
@@ -13185,9 +13697,12 @@
         <v>14</v>
       </c>
       <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="U171" t="n">
+      <c r="V171" t="n">
         <v>80</v>
       </c>
     </row>
@@ -13260,9 +13775,12 @@
         <v>30</v>
       </c>
       <c r="T172" t="n">
+        <v>2</v>
+      </c>
+      <c r="U172" t="n">
         <v>2.033333333333333</v>
       </c>
-      <c r="U172" t="n">
+      <c r="V172" t="n">
         <v>196.7741935483871</v>
       </c>
     </row>
@@ -13335,9 +13853,12 @@
         <v>25</v>
       </c>
       <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
         <v>2.36</v>
       </c>
-      <c r="U173" t="n">
+      <c r="V173" t="n">
         <v>128.2608695652174</v>
       </c>
     </row>
@@ -13408,9 +13929,12 @@
         <v>26</v>
       </c>
       <c r="T174" t="n">
+        <v>6</v>
+      </c>
+      <c r="U174" t="n">
         <v>3.115384615384615</v>
       </c>
-      <c r="U174" t="n">
+      <c r="V174" t="n">
         <v>41.11675126903553</v>
       </c>
     </row>
@@ -13483,9 +14007,12 @@
         <v>37</v>
       </c>
       <c r="T175" t="n">
+        <v>10</v>
+      </c>
+      <c r="U175" t="n">
         <v>5.513513513513513</v>
       </c>
-      <c r="U175" t="n">
+      <c r="V175" t="n">
         <v>15.57251908396947</v>
       </c>
     </row>
@@ -13558,9 +14085,12 @@
         <v>4</v>
       </c>
       <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
         <v>3</v>
       </c>
-      <c r="U176" t="n">
+      <c r="V176" t="n">
         <v>80</v>
       </c>
     </row>
@@ -13631,9 +14161,12 @@
         <v>8</v>
       </c>
       <c r="T177" t="n">
+        <v>2</v>
+      </c>
+      <c r="U177" t="n">
         <v>2.25</v>
       </c>
-      <c r="U177" t="n">
+      <c r="V177" t="n">
         <v>120</v>
       </c>
     </row>
@@ -13706,9 +14239,12 @@
         <v>24</v>
       </c>
       <c r="T178" t="n">
+        <v>2</v>
+      </c>
+      <c r="U178" t="n">
         <v>1.208333333333333</v>
       </c>
-      <c r="U178" t="n">
+      <c r="V178" t="n">
         <v>138.0952380952381</v>
       </c>
     </row>
@@ -13781,9 +14317,12 @@
         <v>24</v>
       </c>
       <c r="T179" t="n">
+        <v>10</v>
+      </c>
+      <c r="U179" t="n">
         <v>2.75</v>
       </c>
-      <c r="U179" t="n">
+      <c r="V179" t="n">
         <v>73.33333333333333</v>
       </c>
     </row>
@@ -13854,9 +14393,12 @@
         <v>15</v>
       </c>
       <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="U180" t="n">
+      <c r="V180" t="n">
         <v>26.33333333333333</v>
       </c>
     </row>
@@ -13929,9 +14471,12 @@
         <v>38</v>
       </c>
       <c r="T181" t="n">
+        <v>3</v>
+      </c>
+      <c r="U181" t="n">
         <v>1.289473684210526</v>
       </c>
-      <c r="U181" t="n">
+      <c r="V181" t="n">
         <v>76.5625</v>
       </c>
     </row>
@@ -14004,9 +14549,12 @@
         <v>27</v>
       </c>
       <c r="T182" t="n">
+        <v>22</v>
+      </c>
+      <c r="U182" t="n">
         <v>2.962962962962963</v>
       </c>
-      <c r="U182" t="n">
+      <c r="V182" t="n">
         <v>45.71428571428572</v>
       </c>
     </row>
@@ -14079,9 +14627,12 @@
         <v>37</v>
       </c>
       <c r="T183" t="n">
+        <v>17</v>
+      </c>
+      <c r="U183" t="n">
         <v>5.756756756756757</v>
       </c>
-      <c r="U183" t="n">
+      <c r="V183" t="n">
         <v>18.34625322997416</v>
       </c>
     </row>
@@ -14154,9 +14705,12 @@
         <v>31</v>
       </c>
       <c r="T184" t="n">
+        <v>16</v>
+      </c>
+      <c r="U184" t="n">
         <v>2.483870967741935</v>
       </c>
-      <c r="U184" t="n">
+      <c r="V184" t="n">
         <v>275</v>
       </c>
     </row>
@@ -14229,9 +14783,12 @@
         <v>37</v>
       </c>
       <c r="T185" t="n">
+        <v>14</v>
+      </c>
+      <c r="U185" t="n">
         <v>3.189189189189189</v>
       </c>
-      <c r="U185" t="n">
+      <c r="V185" t="n">
         <v>60.51282051282051</v>
       </c>
     </row>
@@ -14304,9 +14861,12 @@
         <v>24</v>
       </c>
       <c r="T186" t="n">
+        <v>12</v>
+      </c>
+      <c r="U186" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="U186" t="n">
+      <c r="V186" t="n">
         <v>82.53968253968254</v>
       </c>
     </row>
@@ -14377,9 +14937,12 @@
         <v>19</v>
       </c>
       <c r="T187" t="n">
+        <v>22</v>
+      </c>
+      <c r="U187" t="n">
         <v>3.894736842105263</v>
       </c>
-      <c r="U187" t="n">
+      <c r="V187" t="n">
         <v>76.28865979381443</v>
       </c>
     </row>
@@ -14450,9 +15013,12 @@
         <v>12</v>
       </c>
       <c r="T188" t="n">
+        <v>22</v>
+      </c>
+      <c r="U188" t="n">
         <v>3.5</v>
       </c>
-      <c r="U188" t="n">
+      <c r="V188" t="n">
         <v>60.86956521739131</v>
       </c>
     </row>
@@ -14525,9 +15091,12 @@
         <v>34</v>
       </c>
       <c r="T189" t="n">
+        <v>34</v>
+      </c>
+      <c r="U189" t="n">
         <v>5.647058823529412</v>
       </c>
-      <c r="U189" t="n">
+      <c r="V189" t="n">
         <v>39.02439024390244</v>
       </c>
     </row>
@@ -14600,9 +15169,12 @@
         <v>18</v>
       </c>
       <c r="T190" t="n">
+        <v>15</v>
+      </c>
+      <c r="U190" t="n">
         <v>1.388888888888889</v>
       </c>
-      <c r="U190" t="n">
+      <c r="V190" t="n">
         <v>125</v>
       </c>
     </row>
@@ -14673,9 +15245,12 @@
         <v>16</v>
       </c>
       <c r="T191" t="n">
+        <v>2</v>
+      </c>
+      <c r="U191" t="n">
         <v>0.875</v>
       </c>
-      <c r="U191" t="n">
+      <c r="V191" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -14748,9 +15323,12 @@
         <v>32</v>
       </c>
       <c r="T192" t="n">
+        <v>12</v>
+      </c>
+      <c r="U192" t="n">
         <v>3.5</v>
       </c>
-      <c r="U192" t="n">
+      <c r="V192" t="n">
         <v>102.7522935779816</v>
       </c>
     </row>
@@ -14823,9 +15401,12 @@
         <v>37</v>
       </c>
       <c r="T193" t="n">
+        <v>20</v>
+      </c>
+      <c r="U193" t="n">
         <v>4.054054054054054</v>
       </c>
-      <c r="U193" t="n">
+      <c r="V193" t="n">
         <v>29.18287937743191</v>
       </c>
     </row>
@@ -14896,9 +15477,12 @@
         <v>25</v>
       </c>
       <c r="T194" t="n">
+        <v>6</v>
+      </c>
+      <c r="U194" t="n">
         <v>2.44</v>
       </c>
-      <c r="U194" t="n">
+      <c r="V194" t="n">
         <v>217.8571428571428</v>
       </c>
     </row>
@@ -14971,9 +15555,12 @@
         <v>38</v>
       </c>
       <c r="T195" t="n">
+        <v>9</v>
+      </c>
+      <c r="U195" t="n">
         <v>1.315789473684211</v>
       </c>
-      <c r="U195" t="n">
+      <c r="V195" t="n">
         <v>108.695652173913</v>
       </c>
     </row>
@@ -15044,9 +15631,12 @@
         <v>10</v>
       </c>
       <c r="T196" t="n">
+        <v>34</v>
+      </c>
+      <c r="U196" t="n">
         <v>6.2</v>
       </c>
-      <c r="U196" t="n">
+      <c r="V196" t="n">
         <v>21.75438596491228</v>
       </c>
     </row>
@@ -15119,9 +15709,12 @@
         <v>32</v>
       </c>
       <c r="T197" t="n">
+        <v>8</v>
+      </c>
+      <c r="U197" t="n">
         <v>3.0625</v>
       </c>
-      <c r="U197" t="n">
+      <c r="V197" t="n">
         <v>44.95412844036697</v>
       </c>
     </row>
@@ -15194,9 +15787,12 @@
         <v>1</v>
       </c>
       <c r="T198" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" t="n">
         <v>2</v>
       </c>
-      <c r="U198" t="n">
+      <c r="V198" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -15269,9 +15865,12 @@
         <v>10</v>
       </c>
       <c r="T199" t="n">
+        <v>2</v>
+      </c>
+      <c r="U199" t="n">
         <v>2.4</v>
       </c>
-      <c r="U199" t="n">
+      <c r="V199" t="n">
         <v>141.1764705882353</v>
       </c>
     </row>
@@ -15347,6 +15946,9 @@
         <v>2</v>
       </c>
       <c r="U200" t="n">
+        <v>2</v>
+      </c>
+      <c r="V200" t="n">
         <v>92</v>
       </c>
     </row>
@@ -15419,9 +16021,12 @@
         <v>22</v>
       </c>
       <c r="T201" t="n">
+        <v>22</v>
+      </c>
+      <c r="U201" t="n">
         <v>2.727272727272727</v>
       </c>
-      <c r="U201" t="n">
+      <c r="V201" t="n">
         <v>46.51162790697674</v>
       </c>
     </row>
@@ -15492,9 +16097,12 @@
         <v>5</v>
       </c>
       <c r="T202" t="n">
+        <v>6</v>
+      </c>
+      <c r="U202" t="n">
         <v>2.4</v>
       </c>
-      <c r="U202" t="n">
+      <c r="V202" t="n">
         <v>80</v>
       </c>
     </row>
@@ -15567,9 +16175,12 @@
         <v>20</v>
       </c>
       <c r="T203" t="n">
+        <v>2</v>
+      </c>
+      <c r="U203" t="n">
         <v>1.1</v>
       </c>
-      <c r="U203" t="n">
+      <c r="V203" t="n">
         <v>115.7894736842105</v>
       </c>
     </row>
@@ -15638,9 +16249,12 @@
         <v>3</v>
       </c>
       <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="U204" t="n">
+      <c r="V204" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -15717,9 +16331,12 @@
         <v>10</v>
       </c>
       <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
         <v>1</v>
       </c>
-      <c r="U205" t="n">
+      <c r="V205" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -15792,9 +16409,12 @@
         <v>17</v>
       </c>
       <c r="T206" t="n">
+        <v>6</v>
+      </c>
+      <c r="U206" t="n">
         <v>2.941176470588236</v>
       </c>
-      <c r="U206" t="n">
+      <c r="V206" t="n">
         <v>217.3913043478261</v>
       </c>
     </row>
@@ -15867,9 +16487,12 @@
         <v>24</v>
       </c>
       <c r="T207" t="n">
+        <v>14</v>
+      </c>
+      <c r="U207" t="n">
         <v>3.708333333333333</v>
       </c>
-      <c r="U207" t="n">
+      <c r="V207" t="n">
         <v>45.87628865979381</v>
       </c>
     </row>
@@ -15942,9 +16565,12 @@
         <v>10</v>
       </c>
       <c r="T208" t="n">
+        <v>8</v>
+      </c>
+      <c r="U208" t="n">
         <v>2.2</v>
       </c>
-      <c r="U208" t="n">
+      <c r="V208" t="n">
         <v>137.5</v>
       </c>
     </row>
@@ -16015,9 +16641,12 @@
         <v>10</v>
       </c>
       <c r="T209" t="n">
+        <v>12</v>
+      </c>
+      <c r="U209" t="n">
         <v>3</v>
       </c>
-      <c r="U209" t="n">
+      <c r="V209" t="n">
         <v>142.8571428571429</v>
       </c>
     </row>
@@ -16094,9 +16723,12 @@
         <v>28</v>
       </c>
       <c r="T210" t="n">
+        <v>16</v>
+      </c>
+      <c r="U210" t="n">
         <v>4.5</v>
       </c>
-      <c r="U210" t="n">
+      <c r="V210" t="n">
         <v>28.31460674157303</v>
       </c>
     </row>
@@ -16169,9 +16801,12 @@
         <v>18</v>
       </c>
       <c r="T211" t="n">
+        <v>2</v>
+      </c>
+      <c r="U211" t="n">
         <v>1.555555555555556</v>
       </c>
-      <c r="U211" t="n">
+      <c r="V211" t="n">
         <v>186.6666666666667</v>
       </c>
     </row>
@@ -16244,9 +16879,12 @@
         <v>8</v>
       </c>
       <c r="T212" t="n">
+        <v>0</v>
+      </c>
+      <c r="U212" t="n">
         <v>0.25</v>
       </c>
-      <c r="U212" t="n">
+      <c r="V212" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -16319,9 +16957,12 @@
         <v>34</v>
       </c>
       <c r="T213" t="n">
+        <v>14</v>
+      </c>
+      <c r="U213" t="n">
         <v>5.176470588235294</v>
       </c>
-      <c r="U213" t="n">
+      <c r="V213" t="n">
         <v>16.02914389799636</v>
       </c>
     </row>
@@ -16394,9 +17035,12 @@
         <v>35</v>
       </c>
       <c r="T214" t="n">
+        <v>10</v>
+      </c>
+      <c r="U214" t="n">
         <v>3.942857142857143</v>
       </c>
-      <c r="U214" t="n">
+      <c r="V214" t="n">
         <v>51.68539325842697</v>
       </c>
     </row>
@@ -16467,9 +17111,12 @@
         <v>10</v>
       </c>
       <c r="T215" t="n">
+        <v>0</v>
+      </c>
+      <c r="U215" t="n">
         <v>1.6</v>
       </c>
-      <c r="U215" t="n">
+      <c r="V215" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -16542,9 +17189,12 @@
         <v>27</v>
       </c>
       <c r="T216" t="n">
+        <v>4</v>
+      </c>
+      <c r="U216" t="n">
         <v>2.888888888888889</v>
       </c>
-      <c r="U216" t="n">
+      <c r="V216" t="n">
         <v>236.3636363636363</v>
       </c>
     </row>
@@ -16615,9 +17265,12 @@
         <v>6</v>
       </c>
       <c r="T217" t="n">
+        <v>2</v>
+      </c>
+      <c r="U217" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="U217" t="n">
+      <c r="V217" t="n">
         <v>118.75</v>
       </c>
     </row>
@@ -16690,9 +17343,12 @@
         <v>24</v>
       </c>
       <c r="T218" t="n">
+        <v>10</v>
+      </c>
+      <c r="U218" t="n">
         <v>4.708333333333333</v>
       </c>
-      <c r="U218" t="n">
+      <c r="V218" t="n">
         <v>32.94460641399417</v>
       </c>
     </row>
@@ -16765,9 +17421,12 @@
         <v>32</v>
       </c>
       <c r="T219" t="n">
+        <v>12</v>
+      </c>
+      <c r="U219" t="n">
         <v>2.90625</v>
       </c>
-      <c r="U219" t="n">
+      <c r="V219" t="n">
         <v>150</v>
       </c>
     </row>
@@ -16840,9 +17499,12 @@
         <v>22</v>
       </c>
       <c r="T220" t="n">
+        <v>8</v>
+      </c>
+      <c r="U220" t="n">
         <v>3.090909090909091</v>
       </c>
-      <c r="U220" t="n">
+      <c r="V220" t="n">
         <v>61.81818181818181</v>
       </c>
     </row>
@@ -16913,9 +17575,12 @@
         <v>18</v>
       </c>
       <c r="T221" t="n">
+        <v>15</v>
+      </c>
+      <c r="U221" t="n">
         <v>1.944444444444444</v>
       </c>
-      <c r="U221" t="n">
+      <c r="V221" t="n">
         <v>120.6896551724138</v>
       </c>
     </row>
@@ -16986,9 +17651,12 @@
         <v>19</v>
       </c>
       <c r="T222" t="n">
+        <v>4</v>
+      </c>
+      <c r="U222" t="n">
         <v>1.947368421052632</v>
       </c>
-      <c r="U222" t="n">
+      <c r="V222" t="n">
         <v>94.87179487179486</v>
       </c>
     </row>
@@ -17061,9 +17729,12 @@
         <v>8</v>
       </c>
       <c r="T223" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U223" t="n">
         <v>4.5</v>
       </c>
-      <c r="U223" t="n">
+      <c r="V223" t="n">
         <v>116.1290322580645</v>
       </c>
     </row>
@@ -17136,9 +17807,12 @@
         <v>29</v>
       </c>
       <c r="T224" t="n">
+        <v>21</v>
+      </c>
+      <c r="U224" t="n">
         <v>3.827586206896552</v>
       </c>
-      <c r="U224" t="n">
+      <c r="V224" t="n">
         <v>16.81818181818182</v>
       </c>
     </row>
@@ -17209,9 +17883,12 @@
         <v>26</v>
       </c>
       <c r="T225" t="n">
+        <v>29</v>
+      </c>
+      <c r="U225" t="n">
         <v>4.538461538461538</v>
       </c>
-      <c r="U225" t="n">
+      <c r="V225" t="n">
         <v>41.40350877192982</v>
       </c>
     </row>
@@ -17282,9 +17959,12 @@
         <v>13</v>
       </c>
       <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
         <v>2.615384615384615</v>
       </c>
-      <c r="U226" t="n">
+      <c r="V226" t="n">
         <v>200</v>
       </c>
     </row>
@@ -17357,9 +18037,12 @@
         <v>36</v>
       </c>
       <c r="T227" t="n">
+        <v>28</v>
+      </c>
+      <c r="U227" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="U227" t="n">
+      <c r="V227" t="n">
         <v>20.09132420091324</v>
       </c>
     </row>
@@ -17432,9 +18115,12 @@
         <v>16</v>
       </c>
       <c r="T228" t="n">
+        <v>8</v>
+      </c>
+      <c r="U228" t="n">
         <v>2.0625</v>
       </c>
-      <c r="U228" t="n">
+      <c r="V228" t="n">
         <v>122.2222222222222</v>
       </c>
     </row>
@@ -17505,9 +18191,12 @@
         <v>28</v>
       </c>
       <c r="T229" t="n">
+        <v>10</v>
+      </c>
+      <c r="U229" t="n">
         <v>2.5</v>
       </c>
-      <c r="U229" t="n">
+      <c r="V229" t="n">
         <v>43.47826086956521</v>
       </c>
     </row>
@@ -17580,9 +18269,12 @@
         <v>10</v>
       </c>
       <c r="T230" t="n">
+        <v>4</v>
+      </c>
+      <c r="U230" t="n">
         <v>1.2</v>
       </c>
-      <c r="U230" t="n">
+      <c r="V230" t="n">
         <v>80</v>
       </c>
     </row>
@@ -17655,9 +18347,12 @@
         <v>27</v>
       </c>
       <c r="T231" t="n">
+        <v>18</v>
+      </c>
+      <c r="U231" t="n">
         <v>3.259259259259259</v>
       </c>
-      <c r="U231" t="n">
+      <c r="V231" t="n">
         <v>97.77777777777777</v>
       </c>
     </row>
@@ -17730,9 +18425,12 @@
         <v>35</v>
       </c>
       <c r="T232" t="n">
+        <v>6</v>
+      </c>
+      <c r="U232" t="n">
         <v>2.457142857142857</v>
       </c>
-      <c r="U232" t="n">
+      <c r="V232" t="n">
         <v>245.7142857142857</v>
       </c>
     </row>
@@ -17803,9 +18501,12 @@
         <v>20</v>
       </c>
       <c r="T233" t="n">
+        <v>2</v>
+      </c>
+      <c r="U233" t="n">
         <v>1.7</v>
       </c>
-      <c r="U233" t="n">
+      <c r="V233" t="n">
         <v>117.2413793103448</v>
       </c>
     </row>
@@ -17878,9 +18579,12 @@
         <v>33</v>
       </c>
       <c r="T234" t="n">
+        <v>10</v>
+      </c>
+      <c r="U234" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="U234" t="n">
+      <c r="V234" t="n">
         <v>33.63914373088685</v>
       </c>
     </row>
@@ -17953,9 +18657,12 @@
         <v>20</v>
       </c>
       <c r="T235" t="n">
+        <v>0</v>
+      </c>
+      <c r="U235" t="n">
         <v>2.5</v>
       </c>
-      <c r="U235" t="n">
+      <c r="V235" t="n">
         <v>166.6666666666667</v>
       </c>
     </row>
@@ -18028,9 +18735,12 @@
         <v>30</v>
       </c>
       <c r="T236" t="n">
+        <v>18</v>
+      </c>
+      <c r="U236" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="U236" t="n">
+      <c r="V236" t="n">
         <v>18.13804173354735</v>
       </c>
     </row>
@@ -18103,9 +18813,12 @@
         <v>4</v>
       </c>
       <c r="T237" t="n">
+        <v>0</v>
+      </c>
+      <c r="U237" t="n">
         <v>0.5</v>
       </c>
-      <c r="U237" t="n">
+      <c r="V237" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -18176,9 +18889,12 @@
         <v>33</v>
       </c>
       <c r="T238" t="n">
+        <v>6</v>
+      </c>
+      <c r="U238" t="n">
         <v>3</v>
       </c>
-      <c r="U238" t="n">
+      <c r="V238" t="n">
         <v>206.25</v>
       </c>
     </row>
@@ -18255,9 +18971,12 @@
         <v>24</v>
       </c>
       <c r="T239" t="n">
+        <v>6</v>
+      </c>
+      <c r="U239" t="n">
         <v>2.791666666666667</v>
       </c>
-      <c r="U239" t="n">
+      <c r="V239" t="n">
         <v>257.6923076923077</v>
       </c>
     </row>
@@ -18328,9 +19047,12 @@
         <v>19</v>
       </c>
       <c r="T240" t="n">
+        <v>38</v>
+      </c>
+      <c r="U240" t="n">
         <v>3.473684210526316</v>
       </c>
-      <c r="U240" t="n">
+      <c r="V240" t="n">
         <v>38.59649122807018</v>
       </c>
     </row>
@@ -18403,9 +19125,12 @@
         <v>33</v>
       </c>
       <c r="T241" t="n">
+        <v>16</v>
+      </c>
+      <c r="U241" t="n">
         <v>4.303030303030303</v>
       </c>
-      <c r="U241" t="n">
+      <c r="V241" t="n">
         <v>25.91240875912409</v>
       </c>
     </row>
@@ -18478,9 +19203,12 @@
         <v>31</v>
       </c>
       <c r="T242" t="n">
+        <v>4</v>
+      </c>
+      <c r="U242" t="n">
         <v>3.709677419354839</v>
       </c>
-      <c r="U242" t="n">
+      <c r="V242" t="n">
         <v>44.57364341085271</v>
       </c>
     </row>
@@ -18553,9 +19281,12 @@
         <v>20</v>
       </c>
       <c r="T243" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U243" t="n">
         <v>2.3</v>
       </c>
-      <c r="U243" t="n">
+      <c r="V243" t="n">
         <v>191.6666666666667</v>
       </c>
     </row>
@@ -18630,9 +19361,12 @@
         <v>28</v>
       </c>
       <c r="T244" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U244" t="n">
         <v>3.464285714285714</v>
       </c>
-      <c r="U244" t="n">
+      <c r="V244" t="n">
         <v>89.81481481481481</v>
       </c>
     </row>
@@ -18708,6 +19442,9 @@
         <v>2</v>
       </c>
       <c r="U245" t="n">
+        <v>2</v>
+      </c>
+      <c r="V245" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -18778,9 +19515,12 @@
         <v>34</v>
       </c>
       <c r="T246" t="n">
+        <v>42</v>
+      </c>
+      <c r="U246" t="n">
         <v>6.529411764705882</v>
       </c>
-      <c r="U246" t="n">
+      <c r="V246" t="n">
         <v>12.49296567248171</v>
       </c>
     </row>
@@ -18851,9 +19591,12 @@
         <v>19</v>
       </c>
       <c r="T247" t="n">
+        <v>10</v>
+      </c>
+      <c r="U247" t="n">
         <v>4.368421052631579</v>
       </c>
-      <c r="U247" t="n">
+      <c r="V247" t="n">
         <v>20.90680100755667</v>
       </c>
     </row>
@@ -18926,9 +19669,12 @@
         <v>2</v>
       </c>
       <c r="T248" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" t="n">
         <v>1</v>
       </c>
-      <c r="U248" t="n">
+      <c r="V248" t="n">
         <v>1.652892561983471</v>
       </c>
     </row>
@@ -18999,9 +19745,12 @@
         <v>28</v>
       </c>
       <c r="T249" t="n">
+        <v>12</v>
+      </c>
+      <c r="U249" t="n">
         <v>2.642857142857143</v>
       </c>
-      <c r="U249" t="n">
+      <c r="V249" t="n">
         <v>145.0980392156863</v>
       </c>
     </row>
@@ -19074,9 +19823,12 @@
         <v>19</v>
       </c>
       <c r="T250" t="n">
+        <v>6</v>
+      </c>
+      <c r="U250" t="n">
         <v>4.526315789473684</v>
       </c>
-      <c r="U250" t="n">
+      <c r="V250" t="n">
         <v>24.71264367816092</v>
       </c>
     </row>
@@ -19147,9 +19899,12 @@
         <v>37</v>
       </c>
       <c r="T251" t="n">
+        <v>18</v>
+      </c>
+      <c r="U251" t="n">
         <v>4.162162162162162</v>
       </c>
-      <c r="U251" t="n">
+      <c r="V251" t="n">
         <v>25.53897180762852</v>
       </c>
     </row>
@@ -19222,9 +19977,12 @@
         <v>33</v>
       </c>
       <c r="T252" t="n">
+        <v>34</v>
+      </c>
+      <c r="U252" t="n">
         <v>4.363636363636363</v>
       </c>
-      <c r="U252" t="n">
+      <c r="V252" t="n">
         <v>47.21311475409836</v>
       </c>
     </row>
@@ -19297,9 +20055,12 @@
         <v>23</v>
       </c>
       <c r="T253" t="n">
+        <v>6</v>
+      </c>
+      <c r="U253" t="n">
         <v>3.391304347826087</v>
       </c>
-      <c r="U253" t="n">
+      <c r="V253" t="n">
         <v>37.68115942028986</v>
       </c>
     </row>
@@ -19372,9 +20133,12 @@
         <v>35</v>
       </c>
       <c r="T254" t="n">
+        <v>26</v>
+      </c>
+      <c r="U254" t="n">
         <v>3.742857142857143</v>
       </c>
-      <c r="U254" t="n">
+      <c r="V254" t="n">
         <v>56.22317596566523</v>
       </c>
     </row>
@@ -19447,9 +20211,12 @@
         <v>27</v>
       </c>
       <c r="T255" t="n">
+        <v>14</v>
+      </c>
+      <c r="U255" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="U255" t="n">
+      <c r="V255" t="n">
         <v>41.66666666666666</v>
       </c>
     </row>
@@ -19522,9 +20289,12 @@
         <v>21</v>
       </c>
       <c r="T256" t="n">
+        <v>0</v>
+      </c>
+      <c r="U256" t="n">
         <v>3.047619047619047</v>
       </c>
-      <c r="U256" t="n">
+      <c r="V256" t="n">
         <v>48.1203007518797</v>
       </c>
     </row>
@@ -19595,9 +20365,12 @@
         <v>23</v>
       </c>
       <c r="T257" t="n">
+        <v>10</v>
+      </c>
+      <c r="U257" t="n">
         <v>2.956521739130435</v>
       </c>
-      <c r="U257" t="n">
+      <c r="V257" t="n">
         <v>34.87179487179488</v>
       </c>
     </row>
@@ -19668,9 +20441,12 @@
         <v>33</v>
       </c>
       <c r="T258" t="n">
+        <v>4</v>
+      </c>
+      <c r="U258" t="n">
         <v>2.151515151515151</v>
       </c>
-      <c r="U258" t="n">
+      <c r="V258" t="n">
         <v>49.65034965034965</v>
       </c>
     </row>
@@ -19743,9 +20519,12 @@
         <v>29</v>
       </c>
       <c r="T259" t="n">
+        <v>12</v>
+      </c>
+      <c r="U259" t="n">
         <v>3.172413793103448</v>
       </c>
-      <c r="U259" t="n">
+      <c r="V259" t="n">
         <v>51.11111111111111</v>
       </c>
     </row>
@@ -19818,9 +20597,12 @@
         <v>3</v>
       </c>
       <c r="T260" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="U260" t="n">
+      <c r="V260" t="n">
         <v>26.66666666666667</v>
       </c>
     </row>
@@ -19891,9 +20673,12 @@
         <v>14</v>
       </c>
       <c r="T261" t="n">
+        <v>0</v>
+      </c>
+      <c r="U261" t="n">
         <v>3.214285714285714</v>
       </c>
-      <c r="U261" t="n">
+      <c r="V261" t="n">
         <v>300</v>
       </c>
     </row>
@@ -19966,9 +20751,12 @@
         <v>35</v>
       </c>
       <c r="T262" t="n">
+        <v>19</v>
+      </c>
+      <c r="U262" t="n">
         <v>4.4</v>
       </c>
-      <c r="U262" t="n">
+      <c r="V262" t="n">
         <v>38.5</v>
       </c>
     </row>
@@ -20041,9 +20829,12 @@
         <v>29</v>
       </c>
       <c r="T263" t="n">
+        <v>18</v>
+      </c>
+      <c r="U263" t="n">
         <v>2.96551724137931</v>
       </c>
-      <c r="U263" t="n">
+      <c r="V263" t="n">
         <v>48.86363636363637</v>
       </c>
     </row>
@@ -20114,9 +20905,12 @@
         <v>8</v>
       </c>
       <c r="T264" t="n">
+        <v>8</v>
+      </c>
+      <c r="U264" t="n">
         <v>1.5</v>
       </c>
-      <c r="U264" t="n">
+      <c r="V264" t="n">
         <v>80</v>
       </c>
     </row>
@@ -20189,9 +20983,12 @@
         <v>17</v>
       </c>
       <c r="T265" t="n">
+        <v>2</v>
+      </c>
+      <c r="U265" t="n">
         <v>2.117647058823529</v>
       </c>
-      <c r="U265" t="n">
+      <c r="V265" t="n">
         <v>54.54545454545454</v>
       </c>
     </row>
@@ -20264,9 +21061,12 @@
         <v>31</v>
       </c>
       <c r="T266" t="n">
+        <v>14</v>
+      </c>
+      <c r="U266" t="n">
         <v>2.709677419354839</v>
       </c>
-      <c r="U266" t="n">
+      <c r="V266" t="n">
         <v>101.2048192771084</v>
       </c>
     </row>
@@ -20337,9 +21137,12 @@
         <v>5</v>
       </c>
       <c r="T267" t="n">
+        <v>0</v>
+      </c>
+      <c r="U267" t="n">
         <v>2.8</v>
       </c>
-      <c r="U267" t="n">
+      <c r="V267" t="n">
         <v>70</v>
       </c>
     </row>
@@ -20412,9 +21215,12 @@
         <v>30</v>
       </c>
       <c r="T268" t="n">
+        <v>6</v>
+      </c>
+      <c r="U268" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="U268" t="n">
+      <c r="V268" t="n">
         <v>43.91304347826087</v>
       </c>
     </row>
@@ -20485,9 +21291,12 @@
         <v>24</v>
       </c>
       <c r="T269" t="n">
+        <v>6</v>
+      </c>
+      <c r="U269" t="n">
         <v>2.375</v>
       </c>
-      <c r="U269" t="n">
+      <c r="V269" t="n">
         <v>55.33980582524272</v>
       </c>
     </row>
@@ -20564,9 +21373,12 @@
         <v>17</v>
       </c>
       <c r="T270" t="n">
+        <v>0</v>
+      </c>
+      <c r="U270" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="U270" t="n">
+      <c r="V270" t="n">
         <v>56.25</v>
       </c>
     </row>
@@ -20639,9 +21451,12 @@
         <v>22</v>
       </c>
       <c r="T271" t="n">
+        <v>0</v>
+      </c>
+      <c r="U271" t="n">
         <v>4</v>
       </c>
-      <c r="U271" t="n">
+      <c r="V271" t="n">
         <v>43.56435643564357</v>
       </c>
     </row>
@@ -20714,9 +21529,12 @@
         <v>26</v>
       </c>
       <c r="T272" t="n">
+        <v>6</v>
+      </c>
+      <c r="U272" t="n">
         <v>4.192307692307693</v>
       </c>
-      <c r="U272" t="n">
+      <c r="V272" t="n">
         <v>18.19699499165275</v>
       </c>
     </row>
@@ -20787,9 +21605,12 @@
         <v>2</v>
       </c>
       <c r="T273" t="n">
+        <v>0</v>
+      </c>
+      <c r="U273" t="n">
         <v>1</v>
       </c>
-      <c r="U273" t="n">
+      <c r="V273" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -20862,9 +21683,12 @@
         <v>6</v>
       </c>
       <c r="T274" t="n">
+        <v>0</v>
+      </c>
+      <c r="U274" t="n">
         <v>2</v>
       </c>
-      <c r="U274" t="n">
+      <c r="V274" t="n">
         <v>80</v>
       </c>
     </row>
@@ -20937,9 +21761,12 @@
         <v>30</v>
       </c>
       <c r="T275" t="n">
+        <v>18</v>
+      </c>
+      <c r="U275" t="n">
         <v>3.2</v>
       </c>
-      <c r="U275" t="n">
+      <c r="V275" t="n">
         <v>44.23963133640553</v>
       </c>
     </row>
@@ -21010,9 +21837,12 @@
         <v>2</v>
       </c>
       <c r="T276" t="n">
+        <v>0</v>
+      </c>
+      <c r="U276" t="n">
         <v>1</v>
       </c>
-      <c r="U276" t="n">
+      <c r="V276" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -21085,9 +21915,12 @@
         <v>13</v>
       </c>
       <c r="T277" t="n">
+        <v>4</v>
+      </c>
+      <c r="U277" t="n">
         <v>3.307692307692307</v>
       </c>
-      <c r="U277" t="n">
+      <c r="V277" t="n">
         <v>37.39130434782609</v>
       </c>
     </row>
@@ -21164,9 +21997,12 @@
         <v>10</v>
       </c>
       <c r="T278" t="n">
+        <v>0</v>
+      </c>
+      <c r="U278" t="n">
         <v>5.9</v>
       </c>
-      <c r="U278" t="n">
+      <c r="V278" t="n">
         <v>26.33928571428571</v>
       </c>
     </row>
@@ -21239,9 +22075,12 @@
         <v>12</v>
       </c>
       <c r="T279" t="n">
+        <v>5</v>
+      </c>
+      <c r="U279" t="n">
         <v>1.75</v>
       </c>
-      <c r="U279" t="n">
+      <c r="V279" t="n">
         <v>11.47540983606557</v>
       </c>
     </row>
@@ -21312,9 +22151,12 @@
         <v>38</v>
       </c>
       <c r="T280" t="n">
+        <v>2</v>
+      </c>
+      <c r="U280" t="n">
         <v>1.289473684210526</v>
       </c>
-      <c r="U280" t="n">
+      <c r="V280" t="n">
         <v>119.5121951219512</v>
       </c>
     </row>
@@ -21387,9 +22229,12 @@
         <v>34</v>
       </c>
       <c r="T281" t="n">
+        <v>23</v>
+      </c>
+      <c r="U281" t="n">
         <v>4.058823529411764</v>
       </c>
-      <c r="U281" t="n">
+      <c r="V281" t="n">
         <v>53.28185328185329</v>
       </c>
     </row>
@@ -21460,9 +22305,12 @@
         <v>7</v>
       </c>
       <c r="T282" t="n">
+        <v>10</v>
+      </c>
+      <c r="U282" t="n">
         <v>4.142857142857143</v>
       </c>
-      <c r="U282" t="n">
+      <c r="V282" t="n">
         <v>193.3333333333333</v>
       </c>
     </row>
@@ -21535,9 +22383,12 @@
         <v>33</v>
       </c>
       <c r="T283" t="n">
+        <v>22</v>
+      </c>
+      <c r="U283" t="n">
         <v>4.363636363636363</v>
       </c>
-      <c r="U283" t="n">
+      <c r="V283" t="n">
         <v>14.42885771543086</v>
       </c>
     </row>
@@ -21610,9 +22461,12 @@
         <v>36</v>
       </c>
       <c r="T284" t="n">
+        <v>10</v>
+      </c>
+      <c r="U284" t="n">
         <v>3.111111111111111</v>
       </c>
-      <c r="U284" t="n">
+      <c r="V284" t="n">
         <v>48.48484848484848</v>
       </c>
     </row>
@@ -21685,9 +22539,12 @@
         <v>21</v>
       </c>
       <c r="T285" t="n">
+        <v>6</v>
+      </c>
+      <c r="U285" t="n">
         <v>3.857142857142857</v>
       </c>
-      <c r="U285" t="n">
+      <c r="V285" t="n">
         <v>29.56204379562044</v>
       </c>
     </row>
@@ -21760,9 +22617,12 @@
         <v>33</v>
       </c>
       <c r="T286" t="n">
+        <v>10</v>
+      </c>
+      <c r="U286" t="n">
         <v>3.96969696969697</v>
       </c>
-      <c r="U286" t="n">
+      <c r="V286" t="n">
         <v>18.95803183791606</v>
       </c>
     </row>
@@ -21833,9 +22693,12 @@
         <v>19</v>
       </c>
       <c r="T287" t="n">
+        <v>18</v>
+      </c>
+      <c r="U287" t="n">
         <v>3.157894736842105</v>
       </c>
-      <c r="U287" t="n">
+      <c r="V287" t="n">
         <v>61.22448979591837</v>
       </c>
     </row>
@@ -21908,9 +22771,12 @@
         <v>33</v>
       </c>
       <c r="T288" t="n">
+        <v>12</v>
+      </c>
+      <c r="U288" t="n">
         <v>4.303030303030303</v>
       </c>
-      <c r="U288" t="n">
+      <c r="V288" t="n">
         <v>41.04046242774567</v>
       </c>
     </row>
@@ -21981,9 +22847,12 @@
         <v>14</v>
       </c>
       <c r="T289" t="n">
+        <v>2</v>
+      </c>
+      <c r="U289" t="n">
         <v>2.285714285714286</v>
       </c>
-      <c r="U289" t="n">
+      <c r="V289" t="n">
         <v>213.3333333333333</v>
       </c>
     </row>
@@ -22056,9 +22925,12 @@
         <v>37</v>
       </c>
       <c r="T290" t="n">
+        <v>18</v>
+      </c>
+      <c r="U290" t="n">
         <v>2.972972972972973</v>
       </c>
-      <c r="U290" t="n">
+      <c r="V290" t="n">
         <v>47.00854700854701</v>
       </c>
     </row>
@@ -22135,9 +23007,12 @@
         <v>29</v>
       </c>
       <c r="T291" t="n">
+        <v>0</v>
+      </c>
+      <c r="U291" t="n">
         <v>3.206896551724138</v>
       </c>
-      <c r="U291" t="n">
+      <c r="V291" t="n">
         <v>67.88321167883211</v>
       </c>
     </row>
@@ -22208,9 +23083,12 @@
         <v>36</v>
       </c>
       <c r="T292" t="n">
+        <v>2</v>
+      </c>
+      <c r="U292" t="n">
         <v>3.916666666666667</v>
       </c>
-      <c r="U292" t="n">
+      <c r="V292" t="n">
         <v>21.79289026275116</v>
       </c>
     </row>
@@ -22283,9 +23161,12 @@
         <v>30</v>
       </c>
       <c r="T293" t="n">
+        <v>10</v>
+      </c>
+      <c r="U293" t="n">
         <v>2.933333333333333</v>
       </c>
-      <c r="U293" t="n">
+      <c r="V293" t="n">
         <v>37.76824034334764</v>
       </c>
     </row>
@@ -22358,9 +23239,12 @@
         <v>28</v>
       </c>
       <c r="T294" t="n">
+        <v>17</v>
+      </c>
+      <c r="U294" t="n">
         <v>3.107142857142857</v>
       </c>
-      <c r="U294" t="n">
+      <c r="V294" t="n">
         <v>87.87878787878788</v>
       </c>
     </row>
@@ -22437,9 +23321,12 @@
         <v>15</v>
       </c>
       <c r="T295" t="n">
+        <v>0</v>
+      </c>
+      <c r="U295" t="n">
         <v>4.6</v>
       </c>
-      <c r="U295" t="n">
+      <c r="V295" t="n">
         <v>43.39622641509434</v>
       </c>
     </row>
@@ -22512,9 +23399,12 @@
         <v>27</v>
       </c>
       <c r="T296" t="n">
+        <v>6</v>
+      </c>
+      <c r="U296" t="n">
         <v>3.222222222222222</v>
       </c>
-      <c r="U296" t="n">
+      <c r="V296" t="n">
         <v>36.70886075949367</v>
       </c>
     </row>
@@ -22591,9 +23481,12 @@
         <v>20</v>
       </c>
       <c r="T297" t="n">
+        <v>0</v>
+      </c>
+      <c r="U297" t="n">
         <v>2</v>
       </c>
-      <c r="U297" t="n">
+      <c r="V297" t="n">
         <v>210.5263157894737</v>
       </c>
     </row>
@@ -22664,9 +23557,12 @@
         <v>33</v>
       </c>
       <c r="T298" t="n">
+        <v>23</v>
+      </c>
+      <c r="U298" t="n">
         <v>3.757575757575758</v>
       </c>
-      <c r="U298" t="n">
+      <c r="V298" t="n">
         <v>18.18181818181818</v>
       </c>
     </row>
@@ -22739,9 +23635,12 @@
         <v>21</v>
       </c>
       <c r="T299" t="n">
+        <v>8</v>
+      </c>
+      <c r="U299" t="n">
         <v>2.523809523809524</v>
       </c>
-      <c r="U299" t="n">
+      <c r="V299" t="n">
         <v>252.3809523809524</v>
       </c>
     </row>
@@ -22814,9 +23713,12 @@
         <v>34</v>
       </c>
       <c r="T300" t="n">
+        <v>14</v>
+      </c>
+      <c r="U300" t="n">
         <v>4</v>
       </c>
-      <c r="U300" t="n">
+      <c r="V300" t="n">
         <v>40.23668639053255</v>
       </c>
     </row>
@@ -22889,9 +23791,12 @@
         <v>26</v>
       </c>
       <c r="T301" t="n">
+        <v>18</v>
+      </c>
+      <c r="U301" t="n">
         <v>2.923076923076923</v>
       </c>
-      <c r="U301" t="n">
+      <c r="V301" t="n">
         <v>73.78640776699029</v>
       </c>
     </row>
@@ -22964,9 +23869,12 @@
         <v>36</v>
       </c>
       <c r="T302" t="n">
+        <v>0</v>
+      </c>
+      <c r="U302" t="n">
         <v>4.388888888888889</v>
       </c>
-      <c r="U302" t="n">
+      <c r="V302" t="n">
         <v>24.45820433436533</v>
       </c>
     </row>
@@ -23039,9 +23947,12 @@
         <v>26</v>
       </c>
       <c r="T303" t="n">
+        <v>53</v>
+      </c>
+      <c r="U303" t="n">
         <v>5.653846153846154</v>
       </c>
-      <c r="U303" t="n">
+      <c r="V303" t="n">
         <v>16.70454545454545</v>
       </c>
     </row>
@@ -23114,9 +24025,12 @@
         <v>33</v>
       </c>
       <c r="T304" t="n">
+        <v>22</v>
+      </c>
+      <c r="U304" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="U304" t="n">
+      <c r="V304" t="n">
         <v>73.33333333333334</v>
       </c>
     </row>
@@ -23189,9 +24103,12 @@
         <v>34</v>
       </c>
       <c r="T305" t="n">
+        <v>16</v>
+      </c>
+      <c r="U305" t="n">
         <v>3.647058823529412</v>
       </c>
-      <c r="U305" t="n">
+      <c r="V305" t="n">
         <v>62</v>
       </c>
     </row>
@@ -23268,9 +24185,12 @@
         <v>28</v>
       </c>
       <c r="T306" t="n">
+        <v>0</v>
+      </c>
+      <c r="U306" t="n">
         <v>2.928571428571428</v>
       </c>
-      <c r="U306" t="n">
+      <c r="V306" t="n">
         <v>32.03125</v>
       </c>
     </row>
@@ -23341,9 +24261,12 @@
         <v>3</v>
       </c>
       <c r="T307" t="n">
+        <v>0</v>
+      </c>
+      <c r="U307" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="U307" t="n">
+      <c r="V307" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -23414,9 +24337,12 @@
         <v>26</v>
       </c>
       <c r="T308" t="n">
+        <v>6</v>
+      </c>
+      <c r="U308" t="n">
         <v>2.153846153846154</v>
       </c>
-      <c r="U308" t="n">
+      <c r="V308" t="n">
         <v>233.3333333333333</v>
       </c>
     </row>
@@ -23489,9 +24415,12 @@
         <v>32</v>
       </c>
       <c r="T309" t="n">
+        <v>4</v>
+      </c>
+      <c r="U309" t="n">
         <v>3.6875</v>
       </c>
-      <c r="U309" t="n">
+      <c r="V309" t="n">
         <v>67.42857142857143</v>
       </c>
     </row>
@@ -23564,9 +24493,12 @@
         <v>25</v>
       </c>
       <c r="T310" t="n">
+        <v>23</v>
+      </c>
+      <c r="U310" t="n">
         <v>3.56</v>
       </c>
-      <c r="U310" t="n">
+      <c r="V310" t="n">
         <v>64.49275362318841</v>
       </c>
     </row>
@@ -23639,9 +24571,12 @@
         <v>28</v>
       </c>
       <c r="T311" t="n">
+        <v>0</v>
+      </c>
+      <c r="U311" t="n">
         <v>3.285714285714286</v>
       </c>
-      <c r="U311" t="n">
+      <c r="V311" t="n">
         <v>64.33566433566433</v>
       </c>
     </row>
@@ -23712,9 +24647,12 @@
         <v>33</v>
       </c>
       <c r="T312" t="n">
+        <v>13</v>
+      </c>
+      <c r="U312" t="n">
         <v>5.545454545454546</v>
       </c>
-      <c r="U312" t="n">
+      <c r="V312" t="n">
         <v>34.3984962406015</v>
       </c>
     </row>
@@ -23787,9 +24725,12 @@
         <v>21</v>
       </c>
       <c r="T313" t="n">
+        <v>14</v>
+      </c>
+      <c r="U313" t="n">
         <v>2.380952380952381</v>
       </c>
-      <c r="U313" t="n">
+      <c r="V313" t="n">
         <v>208.3333333333333</v>
       </c>
     </row>
@@ -23862,9 +24803,12 @@
         <v>34</v>
       </c>
       <c r="T314" t="n">
+        <v>14</v>
+      </c>
+      <c r="U314" t="n">
         <v>4.323529411764706</v>
       </c>
-      <c r="U314" t="n">
+      <c r="V314" t="n">
         <v>61.50627615062761</v>
       </c>
     </row>
@@ -23937,9 +24881,12 @@
         <v>23</v>
       </c>
       <c r="T315" t="n">
+        <v>7</v>
+      </c>
+      <c r="U315" t="n">
         <v>2.608695652173913</v>
       </c>
-      <c r="U315" t="n">
+      <c r="V315" t="n">
         <v>9.708737864077671</v>
       </c>
     </row>
@@ -24010,9 +24957,12 @@
         <v>36</v>
       </c>
       <c r="T316" t="n">
+        <v>18</v>
+      </c>
+      <c r="U316" t="n">
         <v>4.222222222222222</v>
       </c>
-      <c r="U316" t="n">
+      <c r="V316" t="n">
         <v>82.60869565217391</v>
       </c>
     </row>
@@ -24083,9 +25033,12 @@
         <v>21</v>
       </c>
       <c r="T317" t="n">
+        <v>2</v>
+      </c>
+      <c r="U317" t="n">
         <v>2.571428571428572</v>
       </c>
-      <c r="U317" t="n">
+      <c r="V317" t="n">
         <v>75</v>
       </c>
     </row>
@@ -24154,9 +25107,12 @@
         <v>4</v>
       </c>
       <c r="T318" t="n">
+        <v>0</v>
+      </c>
+      <c r="U318" t="n">
         <v>0.5</v>
       </c>
-      <c r="U318" t="n">
+      <c r="V318" t="n">
         <v>13.33333333333333</v>
       </c>
     </row>
@@ -24227,9 +25183,12 @@
         <v>25</v>
       </c>
       <c r="T319" t="n">
+        <v>10</v>
+      </c>
+      <c r="U319" t="n">
         <v>2.64</v>
       </c>
-      <c r="U319" t="n">
+      <c r="V319" t="n">
         <v>235.7142857142857</v>
       </c>
     </row>
@@ -24300,9 +25259,12 @@
         <v>10</v>
       </c>
       <c r="T320" t="n">
+        <v>2</v>
+      </c>
+      <c r="U320" t="n">
         <v>3.4</v>
       </c>
-      <c r="U320" t="n">
+      <c r="V320" t="n">
         <v>226.6666666666667</v>
       </c>
     </row>
@@ -24373,9 +25335,12 @@
         <v>8</v>
       </c>
       <c r="T321" t="n">
+        <v>4</v>
+      </c>
+      <c r="U321" t="n">
         <v>1.5</v>
       </c>
-      <c r="U321" t="n">
+      <c r="V321" t="n">
         <v>44.44444444444444</v>
       </c>
     </row>
@@ -24446,9 +25411,12 @@
         <v>16</v>
       </c>
       <c r="T322" t="n">
+        <v>6</v>
+      </c>
+      <c r="U322" t="n">
         <v>3.5</v>
       </c>
-      <c r="U322" t="n">
+      <c r="V322" t="n">
         <v>23.52941176470588</v>
       </c>
     </row>
@@ -24521,9 +25489,12 @@
         <v>19</v>
       </c>
       <c r="T323" t="n">
+        <v>8</v>
+      </c>
+      <c r="U323" t="n">
         <v>1.894736842105263</v>
       </c>
-      <c r="U323" t="n">
+      <c r="V323" t="n">
         <v>43.37349397590361</v>
       </c>
     </row>
@@ -24596,9 +25567,12 @@
         <v>37</v>
       </c>
       <c r="T324" t="n">
+        <v>8</v>
+      </c>
+      <c r="U324" t="n">
         <v>4</v>
       </c>
-      <c r="U324" t="n">
+      <c r="V324" t="n">
         <v>16.46273637374861</v>
       </c>
     </row>
@@ -24671,9 +25645,12 @@
         <v>32</v>
       </c>
       <c r="T325" t="n">
+        <v>4</v>
+      </c>
+      <c r="U325" t="n">
         <v>2.5625</v>
       </c>
-      <c r="U325" t="n">
+      <c r="V325" t="n">
         <v>292.8571428571428</v>
       </c>
     </row>
@@ -24746,9 +25723,12 @@
         <v>34</v>
       </c>
       <c r="T326" t="n">
+        <v>12</v>
+      </c>
+      <c r="U326" t="n">
         <v>4.029411764705882</v>
       </c>
-      <c r="U326" t="n">
+      <c r="V326" t="n">
         <v>23.02521008403361</v>
       </c>
     </row>
@@ -24821,9 +25801,12 @@
         <v>12</v>
       </c>
       <c r="T327" t="n">
+        <v>2</v>
+      </c>
+      <c r="U327" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="U327" t="n">
+      <c r="V327" t="n">
         <v>146.6666666666667</v>
       </c>
     </row>
@@ -24894,9 +25877,12 @@
         <v>28</v>
       </c>
       <c r="T328" t="n">
+        <v>26</v>
+      </c>
+      <c r="U328" t="n">
         <v>4.571428571428571</v>
       </c>
-      <c r="U328" t="n">
+      <c r="V328" t="n">
         <v>50.99601593625498</v>
       </c>
     </row>
@@ -24969,9 +25955,12 @@
         <v>26</v>
       </c>
       <c r="T329" t="n">
+        <v>10</v>
+      </c>
+      <c r="U329" t="n">
         <v>6.461538461538462</v>
       </c>
-      <c r="U329" t="n">
+      <c r="V329" t="n">
         <v>13.58124494745352</v>
       </c>
     </row>
@@ -25044,9 +26033,12 @@
         <v>38</v>
       </c>
       <c r="T330" t="n">
+        <v>8</v>
+      </c>
+      <c r="U330" t="n">
         <v>1.578947368421053</v>
       </c>
-      <c r="U330" t="n">
+      <c r="V330" t="n">
         <v>35.50295857988166</v>
       </c>
     </row>
@@ -25117,9 +26109,12 @@
         <v>16</v>
       </c>
       <c r="T331" t="n">
+        <v>10</v>
+      </c>
+      <c r="U331" t="n">
         <v>2.125</v>
       </c>
-      <c r="U331" t="n">
+      <c r="V331" t="n">
         <v>212.5</v>
       </c>
     </row>
@@ -25190,9 +26185,12 @@
         <v>22</v>
       </c>
       <c r="T332" t="n">
+        <v>24</v>
+      </c>
+      <c r="U332" t="n">
         <v>4</v>
       </c>
-      <c r="U332" t="n">
+      <c r="V332" t="n">
         <v>62.4113475177305</v>
       </c>
     </row>
@@ -25265,9 +26263,12 @@
         <v>31</v>
       </c>
       <c r="T333" t="n">
+        <v>2</v>
+      </c>
+      <c r="U333" t="n">
         <v>2.064516129032258</v>
       </c>
-      <c r="U333" t="n">
+      <c r="V333" t="n">
         <v>30.62200956937799</v>
       </c>
     </row>
@@ -25340,9 +26341,12 @@
         <v>34</v>
       </c>
       <c r="T334" t="n">
+        <v>8</v>
+      </c>
+      <c r="U334" t="n">
         <v>2.382352941176471</v>
       </c>
-      <c r="U334" t="n">
+      <c r="V334" t="n">
         <v>218.9189189189189</v>
       </c>
     </row>
@@ -25413,9 +26417,12 @@
         <v>27</v>
       </c>
       <c r="T335" t="n">
+        <v>10</v>
+      </c>
+      <c r="U335" t="n">
         <v>1.703703703703704</v>
       </c>
-      <c r="U335" t="n">
+      <c r="V335" t="n">
         <v>33.33333333333334</v>
       </c>
     </row>
@@ -25492,9 +26499,12 @@
         <v>22</v>
       </c>
       <c r="T336" t="n">
+        <v>0</v>
+      </c>
+      <c r="U336" t="n">
         <v>4.181818181818182</v>
       </c>
-      <c r="U336" t="n">
+      <c r="V336" t="n">
         <v>133.3333333333333</v>
       </c>
     </row>
@@ -25567,9 +26577,12 @@
         <v>27</v>
       </c>
       <c r="T337" t="n">
+        <v>2</v>
+      </c>
+      <c r="U337" t="n">
         <v>2.296296296296296</v>
       </c>
-      <c r="U337" t="n">
+      <c r="V337" t="n">
         <v>221.4285714285714</v>
       </c>
     </row>
@@ -25642,9 +26655,12 @@
         <v>26</v>
       </c>
       <c r="T338" t="n">
+        <v>20</v>
+      </c>
+      <c r="U338" t="n">
         <v>2.692307692307693</v>
       </c>
-      <c r="U338" t="n">
+      <c r="V338" t="n">
         <v>70.70707070707071</v>
       </c>
     </row>
@@ -25717,9 +26733,12 @@
         <v>31</v>
       </c>
       <c r="T339" t="n">
+        <v>2</v>
+      </c>
+      <c r="U339" t="n">
         <v>4.32258064516129</v>
       </c>
-      <c r="U339" t="n">
+      <c r="V339" t="n">
         <v>57.02127659574468</v>
       </c>
     </row>
@@ -25792,9 +26811,12 @@
         <v>31</v>
       </c>
       <c r="T340" t="n">
+        <v>16</v>
+      </c>
+      <c r="U340" t="n">
         <v>2.161290322580645</v>
       </c>
-      <c r="U340" t="n">
+      <c r="V340" t="n">
         <v>31.90476190476191</v>
       </c>
     </row>
@@ -25865,9 +26887,12 @@
         <v>24</v>
       </c>
       <c r="T341" t="n">
+        <v>12</v>
+      </c>
+      <c r="U341" t="n">
         <v>2.583333333333333</v>
       </c>
-      <c r="U341" t="n">
+      <c r="V341" t="n">
         <v>39.49044585987261</v>
       </c>
     </row>
@@ -25938,9 +26963,12 @@
         <v>36</v>
       </c>
       <c r="T342" t="n">
+        <v>18</v>
+      </c>
+      <c r="U342" t="n">
         <v>4.694444444444445</v>
       </c>
-      <c r="U342" t="n">
+      <c r="V342" t="n">
         <v>16.93386773547094</v>
       </c>
     </row>
@@ -26017,9 +27045,12 @@
         <v>25</v>
       </c>
       <c r="T343" t="n">
+        <v>0</v>
+      </c>
+      <c r="U343" t="n">
         <v>3.92</v>
       </c>
-      <c r="U343" t="n">
+      <c r="V343" t="n">
         <v>75.96899224806201</v>
       </c>
     </row>
@@ -26092,9 +27123,12 @@
         <v>19</v>
       </c>
       <c r="T344" t="n">
+        <v>27</v>
+      </c>
+      <c r="U344" t="n">
         <v>2.526315789473684</v>
       </c>
-      <c r="U344" t="n">
+      <c r="V344" t="n">
         <v>13.18681318681319</v>
       </c>
     </row>
@@ -26167,9 +27201,12 @@
         <v>35</v>
       </c>
       <c r="T345" t="n">
+        <v>10</v>
+      </c>
+      <c r="U345" t="n">
         <v>2.914285714285714</v>
       </c>
-      <c r="U345" t="n">
+      <c r="V345" t="n">
         <v>283.3333333333334</v>
       </c>
     </row>
@@ -26242,9 +27279,12 @@
         <v>6</v>
       </c>
       <c r="T346" t="n">
+        <v>0</v>
+      </c>
+      <c r="U346" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U346" t="n">
+      <c r="V346" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -26315,9 +27355,12 @@
         <v>11</v>
       </c>
       <c r="T347" t="n">
+        <v>6</v>
+      </c>
+      <c r="U347" t="n">
         <v>0.8181818181818182</v>
       </c>
-      <c r="U347" t="n">
+      <c r="V347" t="n">
         <v>33.33333333333333</v>
       </c>
     </row>
@@ -26388,9 +27431,12 @@
         <v>19</v>
       </c>
       <c r="T348" t="n">
+        <v>16</v>
+      </c>
+      <c r="U348" t="n">
         <v>2.105263157894737</v>
       </c>
-      <c r="U348" t="n">
+      <c r="V348" t="n">
         <v>190.4761904761905</v>
       </c>
     </row>
@@ -26463,9 +27509,12 @@
         <v>28</v>
       </c>
       <c r="T349" t="n">
+        <v>16</v>
+      </c>
+      <c r="U349" t="n">
         <v>2.25</v>
       </c>
-      <c r="U349" t="n">
+      <c r="V349" t="n">
         <v>95.45454545454545</v>
       </c>
     </row>
@@ -26540,9 +27589,12 @@
         <v>7</v>
       </c>
       <c r="T350" t="n">
+        <v>4</v>
+      </c>
+      <c r="U350" t="n">
         <v>1.714285714285714</v>
       </c>
-      <c r="U350" t="n">
+      <c r="V350" t="n">
         <v>80</v>
       </c>
     </row>
@@ -26615,9 +27667,12 @@
         <v>2</v>
       </c>
       <c r="T351" t="n">
+        <v>4</v>
+      </c>
+      <c r="U351" t="n">
         <v>2</v>
       </c>
-      <c r="U351" t="n">
+      <c r="V351" t="n">
         <v>4.25531914893617</v>
       </c>
     </row>
@@ -26690,9 +27745,12 @@
         <v>17</v>
       </c>
       <c r="T352" t="n">
+        <v>0</v>
+      </c>
+      <c r="U352" t="n">
         <v>2.117647058823529</v>
       </c>
-      <c r="U352" t="n">
+      <c r="V352" t="n">
         <v>225</v>
       </c>
     </row>
@@ -26765,9 +27823,12 @@
         <v>30</v>
       </c>
       <c r="T353" t="n">
+        <v>20</v>
+      </c>
+      <c r="U353" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="U353" t="n">
+      <c r="V353" t="n">
         <v>28.99408284023669</v>
       </c>
     </row>
@@ -26838,9 +27899,12 @@
         <v>36</v>
       </c>
       <c r="T354" t="n">
+        <v>18</v>
+      </c>
+      <c r="U354" t="n">
         <v>3.25</v>
       </c>
-      <c r="U354" t="n">
+      <c r="V354" t="n">
         <v>55.18867924528302</v>
       </c>
     </row>
@@ -26911,9 +27975,12 @@
         <v>34</v>
       </c>
       <c r="T355" t="n">
+        <v>10</v>
+      </c>
+      <c r="U355" t="n">
         <v>4.941176470588236</v>
       </c>
-      <c r="U355" t="n">
+      <c r="V355" t="n">
         <v>43.18766066838046</v>
       </c>
     </row>
@@ -26986,9 +28053,12 @@
         <v>30</v>
       </c>
       <c r="T356" t="n">
+        <v>18</v>
+      </c>
+      <c r="U356" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="U356" t="n">
+      <c r="V356" t="n">
         <v>43.35664335664336</v>
       </c>
     </row>
@@ -27061,9 +28131,12 @@
         <v>34</v>
       </c>
       <c r="T357" t="n">
+        <v>33</v>
+      </c>
+      <c r="U357" t="n">
         <v>5.558823529411764</v>
       </c>
-      <c r="U357" t="n">
+      <c r="V357" t="n">
         <v>15.59405940594059</v>
       </c>
     </row>
@@ -27136,9 +28209,12 @@
         <v>26</v>
       </c>
       <c r="T358" t="n">
+        <v>4</v>
+      </c>
+      <c r="U358" t="n">
         <v>1.423076923076923</v>
       </c>
-      <c r="U358" t="n">
+      <c r="V358" t="n">
         <v>148</v>
       </c>
     </row>
@@ -27211,9 +28287,12 @@
         <v>22</v>
       </c>
       <c r="T359" t="n">
+        <v>6</v>
+      </c>
+      <c r="U359" t="n">
         <v>5</v>
       </c>
-      <c r="U359" t="n">
+      <c r="V359" t="n">
         <v>14.66666666666667</v>
       </c>
     </row>
@@ -27286,9 +28365,12 @@
         <v>31</v>
       </c>
       <c r="T360" t="n">
+        <v>8</v>
+      </c>
+      <c r="U360" t="n">
         <v>3.354838709677419</v>
       </c>
-      <c r="U360" t="n">
+      <c r="V360" t="n">
         <v>116.8539325842697</v>
       </c>
     </row>
@@ -27359,9 +28441,12 @@
         <v>17</v>
       </c>
       <c r="T361" t="n">
+        <v>8</v>
+      </c>
+      <c r="U361" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="U361" t="n">
+      <c r="V361" t="n">
         <v>48.88888888888889</v>
       </c>
     </row>
@@ -27434,9 +28519,12 @@
         <v>29</v>
       </c>
       <c r="T362" t="n">
+        <v>10</v>
+      </c>
+      <c r="U362" t="n">
         <v>3.03448275862069</v>
       </c>
-      <c r="U362" t="n">
+      <c r="V362" t="n">
         <v>85.4368932038835</v>
       </c>
     </row>
@@ -27509,9 +28597,12 @@
         <v>20</v>
       </c>
       <c r="T363" t="n">
+        <v>14</v>
+      </c>
+      <c r="U363" t="n">
         <v>2.3</v>
       </c>
-      <c r="U363" t="n">
+      <c r="V363" t="n">
         <v>158.6206896551724</v>
       </c>
     </row>
@@ -27580,9 +28671,12 @@
         <v>38</v>
       </c>
       <c r="T364" t="n">
+        <v>5</v>
+      </c>
+      <c r="U364" t="n">
         <v>1.078947368421053</v>
       </c>
-      <c r="U364" t="n">
+      <c r="V364" t="n">
         <v>151.8518518518518</v>
       </c>
     </row>
@@ -27653,9 +28747,12 @@
         <v>33</v>
       </c>
       <c r="T365" t="n">
+        <v>6</v>
+      </c>
+      <c r="U365" t="n">
         <v>2.818181818181818</v>
       </c>
-      <c r="U365" t="n">
+      <c r="V365" t="n">
         <v>23.48484848484848</v>
       </c>
     </row>
@@ -27728,9 +28825,12 @@
         <v>26</v>
       </c>
       <c r="T366" t="n">
+        <v>0</v>
+      </c>
+      <c r="U366" t="n">
         <v>4</v>
       </c>
-      <c r="U366" t="n">
+      <c r="V366" t="n">
         <v>95.41284403669724</v>
       </c>
     </row>
@@ -27803,9 +28903,12 @@
         <v>30</v>
       </c>
       <c r="T367" t="n">
+        <v>12</v>
+      </c>
+      <c r="U367" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="U367" t="n">
+      <c r="V367" t="n">
         <v>62.22222222222222</v>
       </c>
     </row>
@@ -27878,9 +28981,12 @@
         <v>12</v>
       </c>
       <c r="T368" t="n">
+        <v>0</v>
+      </c>
+      <c r="U368" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="U368" t="n">
+      <c r="V368" t="n">
         <v>66.66666666666667</v>
       </c>
     </row>
@@ -27953,9 +29059,12 @@
         <v>37</v>
       </c>
       <c r="T369" t="n">
+        <v>18</v>
+      </c>
+      <c r="U369" t="n">
         <v>3.72972972972973</v>
       </c>
-      <c r="U369" t="n">
+      <c r="V369" t="n">
         <v>70.05076142131979</v>
       </c>
     </row>
@@ -28028,9 +29137,12 @@
         <v>23</v>
       </c>
       <c r="T370" t="n">
+        <v>21</v>
+      </c>
+      <c r="U370" t="n">
         <v>3.521739130434783</v>
       </c>
-      <c r="U370" t="n">
+      <c r="V370" t="n">
         <v>37.5</v>
       </c>
     </row>
@@ -28103,9 +29215,12 @@
         <v>24</v>
       </c>
       <c r="T371" t="n">
+        <v>0</v>
+      </c>
+      <c r="U371" t="n">
         <v>0.9166666666666666</v>
       </c>
-      <c r="U371" t="n">
+      <c r="V371" t="n">
         <v>115.7894736842105</v>
       </c>
     </row>
@@ -28176,9 +29291,12 @@
         <v>32</v>
       </c>
       <c r="T372" t="n">
+        <v>22</v>
+      </c>
+      <c r="U372" t="n">
         <v>3.0625</v>
       </c>
-      <c r="U372" t="n">
+      <c r="V372" t="n">
         <v>108.8888888888889</v>
       </c>
     </row>
@@ -28249,9 +29367,12 @@
         <v>25</v>
       </c>
       <c r="T373" t="n">
+        <v>0</v>
+      </c>
+      <c r="U373" t="n">
         <v>3.84</v>
       </c>
-      <c r="U373" t="n">
+      <c r="V373" t="n">
         <v>61.53846153846153</v>
       </c>
     </row>
@@ -28324,9 +29445,12 @@
         <v>37</v>
       </c>
       <c r="T374" t="n">
+        <v>10</v>
+      </c>
+      <c r="U374" t="n">
         <v>4.864864864864865</v>
       </c>
-      <c r="U374" t="n">
+      <c r="V374" t="n">
         <v>15.49053356282272</v>
       </c>
     </row>
@@ -28397,9 +29521,12 @@
         <v>38</v>
       </c>
       <c r="T375" t="n">
+        <v>25</v>
+      </c>
+      <c r="U375" t="n">
         <v>4.894736842105263</v>
       </c>
-      <c r="U375" t="n">
+      <c r="V375" t="n">
         <v>29.15360501567398</v>
       </c>
     </row>
@@ -28472,9 +29599,12 @@
         <v>36</v>
       </c>
       <c r="T376" t="n">
+        <v>29</v>
+      </c>
+      <c r="U376" t="n">
         <v>5.166666666666667</v>
       </c>
-      <c r="U376" t="n">
+      <c r="V376" t="n">
         <v>22.93464858199754</v>
       </c>
     </row>
@@ -28547,9 +29677,12 @@
         <v>35</v>
       </c>
       <c r="T377" t="n">
+        <v>30</v>
+      </c>
+      <c r="U377" t="n">
         <v>4.171428571428572</v>
       </c>
-      <c r="U377" t="n">
+      <c r="V377" t="n">
         <v>40.33149171270718</v>
       </c>
     </row>
@@ -28624,9 +29757,12 @@
         <v>34</v>
       </c>
       <c r="T378" t="n">
+        <v>6</v>
+      </c>
+      <c r="U378" t="n">
         <v>3.205882352941177</v>
       </c>
-      <c r="U378" t="n">
+      <c r="V378" t="n">
         <v>69.87179487179488</v>
       </c>
     </row>
@@ -28699,9 +29835,12 @@
         <v>31</v>
       </c>
       <c r="T379" t="n">
+        <v>28</v>
+      </c>
+      <c r="U379" t="n">
         <v>2.32258064516129</v>
       </c>
-      <c r="U379" t="n">
+      <c r="V379" t="n">
         <v>37.30569948186529</v>
       </c>
     </row>
@@ -28774,9 +29913,12 @@
         <v>22</v>
       </c>
       <c r="T380" t="n">
+        <v>2</v>
+      </c>
+      <c r="U380" t="n">
         <v>1.818181818181818</v>
       </c>
-      <c r="U380" t="n">
+      <c r="V380" t="n">
         <v>35.08771929824562</v>
       </c>
     </row>
@@ -28849,9 +29991,12 @@
         <v>31</v>
       </c>
       <c r="T381" t="n">
+        <v>10</v>
+      </c>
+      <c r="U381" t="n">
         <v>1.516129032258065</v>
       </c>
-      <c r="U381" t="n">
+      <c r="V381" t="n">
         <v>130.5555555555556</v>
       </c>
     </row>
@@ -28924,9 +30069,12 @@
         <v>23</v>
       </c>
       <c r="T382" t="n">
+        <v>2</v>
+      </c>
+      <c r="U382" t="n">
         <v>3.304347826086957</v>
       </c>
-      <c r="U382" t="n">
+      <c r="V382" t="n">
         <v>42.69662921348314</v>
       </c>
     </row>
@@ -28997,9 +30145,12 @@
         <v>29</v>
       </c>
       <c r="T383" t="n">
+        <v>4</v>
+      </c>
+      <c r="U383" t="n">
         <v>3.344827586206896</v>
       </c>
-      <c r="U383" t="n">
+      <c r="V383" t="n">
         <v>176.3636363636363</v>
       </c>
     </row>
@@ -29072,9 +30223,12 @@
         <v>30</v>
       </c>
       <c r="T384" t="n">
+        <v>18</v>
+      </c>
+      <c r="U384" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="U384" t="n">
+      <c r="V384" t="n">
         <v>31.08614232209738</v>
       </c>
     </row>
@@ -29145,9 +30299,12 @@
         <v>38</v>
       </c>
       <c r="T385" t="n">
+        <v>6</v>
+      </c>
+      <c r="U385" t="n">
         <v>4.052631578947368</v>
       </c>
-      <c r="U385" t="n">
+      <c r="V385" t="n">
         <v>45.6973293768546</v>
       </c>
     </row>
@@ -29220,9 +30377,12 @@
         <v>38</v>
       </c>
       <c r="T386" t="n">
+        <v>7</v>
+      </c>
+      <c r="U386" t="n">
         <v>1.105263157894737</v>
       </c>
-      <c r="U386" t="n">
+      <c r="V386" t="n">
         <v>144.8275862068966</v>
       </c>
     </row>
@@ -29295,9 +30455,12 @@
         <v>17</v>
       </c>
       <c r="T387" t="n">
+        <v>4</v>
+      </c>
+      <c r="U387" t="n">
         <v>3.882352941176471</v>
       </c>
-      <c r="U387" t="n">
+      <c r="V387" t="n">
         <v>194.1176470588235</v>
       </c>
     </row>
@@ -29368,9 +30531,12 @@
         <v>15</v>
       </c>
       <c r="T388" t="n">
+        <v>2</v>
+      </c>
+      <c r="U388" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="U388" t="n">
+      <c r="V388" t="n">
         <v>22.11538461538461</v>
       </c>
     </row>
@@ -29443,9 +30609,12 @@
         <v>38</v>
       </c>
       <c r="T389" t="n">
+        <v>8</v>
+      </c>
+      <c r="U389" t="n">
         <v>2.026315789473684</v>
       </c>
-      <c r="U389" t="n">
+      <c r="V389" t="n">
         <v>22.19020172910663</v>
       </c>
     </row>
@@ -29518,9 +30687,12 @@
         <v>33</v>
       </c>
       <c r="T390" t="n">
+        <v>21</v>
+      </c>
+      <c r="U390" t="n">
         <v>3.242424242424242</v>
       </c>
-      <c r="U390" t="n">
+      <c r="V390" t="n">
         <v>146.5753424657534</v>
       </c>
     </row>
@@ -29593,9 +30765,12 @@
         <v>22</v>
       </c>
       <c r="T391" t="n">
+        <v>10</v>
+      </c>
+      <c r="U391" t="n">
         <v>2</v>
       </c>
-      <c r="U391" t="n">
+      <c r="V391" t="n">
         <v>162.962962962963</v>
       </c>
     </row>
@@ -29666,9 +30841,12 @@
         <v>32</v>
       </c>
       <c r="T392" t="n">
+        <v>7</v>
+      </c>
+      <c r="U392" t="n">
         <v>2.75</v>
       </c>
-      <c r="U392" t="n">
+      <c r="V392" t="n">
         <v>83.80952380952381</v>
       </c>
     </row>
@@ -29739,9 +30917,12 @@
         <v>32</v>
       </c>
       <c r="T393" t="n">
+        <v>20</v>
+      </c>
+      <c r="U393" t="n">
         <v>3.46875</v>
       </c>
-      <c r="U393" t="n">
+      <c r="V393" t="n">
         <v>75</v>
       </c>
     </row>
@@ -29814,9 +30995,12 @@
         <v>25</v>
       </c>
       <c r="T394" t="n">
+        <v>10</v>
+      </c>
+      <c r="U394" t="n">
         <v>3.12</v>
       </c>
-      <c r="U394" t="n">
+      <c r="V394" t="n">
         <v>38.80597014925374</v>
       </c>
     </row>
@@ -29889,9 +31073,12 @@
         <v>31</v>
       </c>
       <c r="T395" t="n">
+        <v>30</v>
+      </c>
+      <c r="U395" t="n">
         <v>4.451612903225806</v>
       </c>
-      <c r="U395" t="n">
+      <c r="V395" t="n">
         <v>24.90974729241877</v>
       </c>
     </row>
@@ -29964,9 +31151,12 @@
         <v>35</v>
       </c>
       <c r="T396" t="n">
+        <v>34</v>
+      </c>
+      <c r="U396" t="n">
         <v>5.942857142857143</v>
       </c>
-      <c r="U396" t="n">
+      <c r="V396" t="n">
         <v>14.93180186647523</v>
       </c>
     </row>
@@ -30037,9 +31227,12 @@
         <v>19</v>
       </c>
       <c r="T397" t="n">
+        <v>2</v>
+      </c>
+      <c r="U397" t="n">
         <v>0.8947368421052632</v>
       </c>
-      <c r="U397" t="n">
+      <c r="V397" t="n">
         <v>80.95238095238095</v>
       </c>
     </row>
@@ -30110,9 +31303,12 @@
         <v>33</v>
       </c>
       <c r="T398" t="n">
+        <v>0</v>
+      </c>
+      <c r="U398" t="n">
         <v>2</v>
       </c>
-      <c r="U398" t="n">
+      <c r="V398" t="n">
         <v>14.73214285714286</v>
       </c>
     </row>
@@ -30185,9 +31381,12 @@
         <v>4</v>
       </c>
       <c r="T399" t="n">
+        <v>14</v>
+      </c>
+      <c r="U399" t="n">
         <v>3</v>
       </c>
-      <c r="U399" t="n">
+      <c r="V399" t="n">
         <v>12.12121212121212</v>
       </c>
     </row>
@@ -30260,9 +31459,12 @@
         <v>38</v>
       </c>
       <c r="T400" t="n">
+        <v>30</v>
+      </c>
+      <c r="U400" t="n">
         <v>6.263157894736842</v>
       </c>
-      <c r="U400" t="n">
+      <c r="V400" t="n">
         <v>26.1251372118551</v>
       </c>
     </row>
@@ -30335,9 +31537,12 @@
         <v>27</v>
       </c>
       <c r="T401" t="n">
+        <v>12</v>
+      </c>
+      <c r="U401" t="n">
         <v>3.037037037037037</v>
       </c>
-      <c r="U401" t="n">
+      <c r="V401" t="n">
         <v>55.4054054054054</v>
       </c>
     </row>
@@ -30410,9 +31615,12 @@
         <v>27</v>
       </c>
       <c r="T402" t="n">
+        <v>0</v>
+      </c>
+      <c r="U402" t="n">
         <v>2.296296296296296</v>
       </c>
-      <c r="U402" t="n">
+      <c r="V402" t="n">
         <v>47.69230769230769</v>
       </c>
     </row>
@@ -30483,9 +31691,12 @@
         <v>15</v>
       </c>
       <c r="T403" t="n">
+        <v>4</v>
+      </c>
+      <c r="U403" t="n">
         <v>3</v>
       </c>
-      <c r="U403" t="n">
+      <c r="V403" t="n">
         <v>264.7058823529412</v>
       </c>
     </row>
@@ -30560,9 +31771,12 @@
         <v>26</v>
       </c>
       <c r="T404" t="n">
+        <v>0</v>
+      </c>
+      <c r="U404" t="n">
         <v>2.615384615384615</v>
       </c>
-      <c r="U404" t="n">
+      <c r="V404" t="n">
         <v>283.3333333333334</v>
       </c>
     </row>
@@ -30635,9 +31849,12 @@
         <v>23</v>
       </c>
       <c r="T405" t="n">
+        <v>10</v>
+      </c>
+      <c r="U405" t="n">
         <v>1.304347826086957</v>
       </c>
-      <c r="U405" t="n">
+      <c r="V405" t="n">
         <v>96.7741935483871</v>
       </c>
     </row>
@@ -30712,9 +31929,12 @@
         <v>5</v>
       </c>
       <c r="T406" t="n">
+        <v>0</v>
+      </c>
+      <c r="U406" t="n">
         <v>7</v>
       </c>
-      <c r="U406" t="n">
+      <c r="V406" t="n">
         <v>59.32203389830509</v>
       </c>
     </row>
@@ -30787,9 +32007,12 @@
         <v>21</v>
       </c>
       <c r="T407" t="n">
+        <v>0</v>
+      </c>
+      <c r="U407" t="n">
         <v>2.952380952380953</v>
       </c>
-      <c r="U407" t="n">
+      <c r="V407" t="n">
         <v>248</v>
       </c>
     </row>
@@ -30862,9 +32085,12 @@
         <v>34</v>
       </c>
       <c r="T408" t="n">
+        <v>8</v>
+      </c>
+      <c r="U408" t="n">
         <v>3</v>
       </c>
-      <c r="U408" t="n">
+      <c r="V408" t="n">
         <v>152.2388059701493</v>
       </c>
     </row>
@@ -30937,9 +32163,12 @@
         <v>36</v>
       </c>
       <c r="T409" t="n">
+        <v>18</v>
+      </c>
+      <c r="U409" t="n">
         <v>3.055555555555555</v>
       </c>
-      <c r="U409" t="n">
+      <c r="V409" t="n">
         <v>48.88888888888889</v>
       </c>
     </row>
@@ -31012,9 +32241,12 @@
         <v>31</v>
       </c>
       <c r="T410" t="n">
+        <v>8</v>
+      </c>
+      <c r="U410" t="n">
         <v>3.290322580645161</v>
       </c>
-      <c r="U410" t="n">
+      <c r="V410" t="n">
         <v>54.83870967741935</v>
       </c>
     </row>
@@ -31087,9 +32319,12 @@
         <v>10</v>
       </c>
       <c r="T411" t="n">
+        <v>2</v>
+      </c>
+      <c r="U411" t="n">
         <v>1.6</v>
       </c>
-      <c r="U411" t="n">
+      <c r="V411" t="n">
         <v>88.88888888888889</v>
       </c>
     </row>
@@ -31160,9 +32395,12 @@
         <v>35</v>
       </c>
       <c r="T412" t="n">
+        <v>8</v>
+      </c>
+      <c r="U412" t="n">
         <v>4.942857142857143</v>
       </c>
-      <c r="U412" t="n">
+      <c r="V412" t="n">
         <v>31.00358422939068</v>
       </c>
     </row>
@@ -31233,9 +32471,12 @@
         <v>19</v>
       </c>
       <c r="T413" t="n">
+        <v>14</v>
+      </c>
+      <c r="U413" t="n">
         <v>5.210526315789473</v>
       </c>
-      <c r="U413" t="n">
+      <c r="V413" t="n">
         <v>20.24539877300614</v>
       </c>
     </row>
@@ -31306,9 +32547,12 @@
         <v>25</v>
       </c>
       <c r="T414" t="n">
+        <v>4</v>
+      </c>
+      <c r="U414" t="n">
         <v>2.48</v>
       </c>
-      <c r="U414" t="n">
+      <c r="V414" t="n">
         <v>269.5652173913043</v>
       </c>
     </row>
@@ -31381,9 +32625,12 @@
         <v>35</v>
       </c>
       <c r="T415" t="n">
+        <v>24</v>
+      </c>
+      <c r="U415" t="n">
         <v>4.942857142857143</v>
       </c>
-      <c r="U415" t="n">
+      <c r="V415" t="n">
         <v>23.22147651006711</v>
       </c>
     </row>
@@ -31456,9 +32703,12 @@
         <v>5</v>
       </c>
       <c r="T416" t="n">
+        <v>0</v>
+      </c>
+      <c r="U416" t="n">
         <v>2.4</v>
       </c>
-      <c r="U416" t="n">
+      <c r="V416" t="n">
         <v>10.52631578947368</v>
       </c>
     </row>
@@ -31531,9 +32781,12 @@
         <v>33</v>
       </c>
       <c r="T417" t="n">
+        <v>14</v>
+      </c>
+      <c r="U417" t="n">
         <v>6.787878787878788</v>
       </c>
-      <c r="U417" t="n">
+      <c r="V417" t="n">
         <v>13.50210970464135</v>
       </c>
     </row>
@@ -31606,9 +32859,12 @@
         <v>33</v>
       </c>
       <c r="T418" t="n">
+        <v>4</v>
+      </c>
+      <c r="U418" t="n">
         <v>3.393939393939394</v>
       </c>
-      <c r="U418" t="n">
+      <c r="V418" t="n">
         <v>54.63414634146342</v>
       </c>
     </row>
@@ -31681,9 +32937,12 @@
         <v>36</v>
       </c>
       <c r="T419" t="n">
+        <v>29</v>
+      </c>
+      <c r="U419" t="n">
         <v>4.277777777777778</v>
       </c>
-      <c r="U419" t="n">
+      <c r="V419" t="n">
         <v>25.28735632183908</v>
       </c>
     </row>
@@ -31756,9 +33015,12 @@
         <v>28</v>
       </c>
       <c r="T420" t="n">
+        <v>4</v>
+      </c>
+      <c r="U420" t="n">
         <v>1.357142857142857</v>
       </c>
-      <c r="U420" t="n">
+      <c r="V420" t="n">
         <v>102.7027027027027</v>
       </c>
     </row>
@@ -31831,9 +33093,12 @@
         <v>38</v>
       </c>
       <c r="T421" t="n">
+        <v>6</v>
+      </c>
+      <c r="U421" t="n">
         <v>2.315789473684211</v>
       </c>
-      <c r="U421" t="n">
+      <c r="V421" t="n">
         <v>24.10958904109589</v>
       </c>
     </row>
@@ -31904,9 +33169,12 @@
         <v>25</v>
       </c>
       <c r="T422" t="n">
+        <v>19</v>
+      </c>
+      <c r="U422" t="n">
         <v>2.68</v>
       </c>
-      <c r="U422" t="n">
+      <c r="V422" t="n">
         <v>103.0769230769231</v>
       </c>
     </row>
@@ -31979,9 +33247,12 @@
         <v>20</v>
       </c>
       <c r="T423" t="n">
+        <v>12</v>
+      </c>
+      <c r="U423" t="n">
         <v>3.6</v>
       </c>
-      <c r="U423" t="n">
+      <c r="V423" t="n">
         <v>109.0909090909091</v>
       </c>
     </row>
@@ -32058,9 +33329,12 @@
         <v>28</v>
       </c>
       <c r="T424" t="n">
+        <v>-2</v>
+      </c>
+      <c r="U424" t="n">
         <v>3.964285714285714</v>
       </c>
-      <c r="U424" t="n">
+      <c r="V424" t="n">
         <v>58.1151832460733</v>
       </c>
     </row>
@@ -32133,9 +33407,12 @@
         <v>36</v>
       </c>
       <c r="T425" t="n">
+        <v>25</v>
+      </c>
+      <c r="U425" t="n">
         <v>3.611111111111111</v>
       </c>
-      <c r="U425" t="n">
+      <c r="V425" t="n">
         <v>26.80412371134021</v>
       </c>
     </row>
@@ -32206,9 +33483,12 @@
         <v>5</v>
       </c>
       <c r="T426" t="n">
+        <v>0</v>
+      </c>
+      <c r="U426" t="n">
         <v>0.8</v>
       </c>
-      <c r="U426" t="n">
+      <c r="V426" t="n">
         <v>26.66666666666667</v>
       </c>
     </row>
@@ -32285,9 +33565,12 @@
         <v>33</v>
       </c>
       <c r="T427" t="n">
+        <v>-6</v>
+      </c>
+      <c r="U427" t="n">
         <v>1.757575757575758</v>
       </c>
-      <c r="U427" t="n">
+      <c r="V427" t="n">
         <v>152.6315789473684</v>
       </c>
     </row>
@@ -32364,9 +33647,12 @@
         <v>29</v>
       </c>
       <c r="T428" t="n">
+        <v>14</v>
+      </c>
+      <c r="U428" t="n">
         <v>2.724137931034483</v>
       </c>
-      <c r="U428" t="n">
+      <c r="V428" t="n">
         <v>41.7989417989418</v>
       </c>
     </row>
@@ -32439,9 +33725,12 @@
         <v>10</v>
       </c>
       <c r="T429" t="n">
+        <v>0</v>
+      </c>
+      <c r="U429" t="n">
         <v>1.4</v>
       </c>
-      <c r="U429" t="n">
+      <c r="V429" t="n">
         <v>70</v>
       </c>
     </row>
@@ -32514,9 +33803,12 @@
         <v>31</v>
       </c>
       <c r="T430" t="n">
+        <v>16</v>
+      </c>
+      <c r="U430" t="n">
         <v>3.903225806451613</v>
       </c>
-      <c r="U430" t="n">
+      <c r="V430" t="n">
         <v>52.38095238095238</v>
       </c>
     </row>
@@ -32589,9 +33881,12 @@
         <v>36</v>
       </c>
       <c r="T431" t="n">
+        <v>26</v>
+      </c>
+      <c r="U431" t="n">
         <v>4.555555555555555</v>
       </c>
-      <c r="U431" t="n">
+      <c r="V431" t="n">
         <v>24.77341389728097</v>
       </c>
     </row>
